--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74a1e15f4094df42/Bureau/Boids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C635828-31BC-431A-80E3-56D2468D17E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457825D-549A-414B-B4F0-00A90C7C2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -1180,48 +1180,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1239,11 +1208,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1259,27 +1240,46 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2439,17 +2439,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.21875" style="38"/>
-    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.6328125" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="38"/>
+    <col min="7" max="7" width="9.1796875" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.21875" style="38"/>
+    <col min="15" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2517,7 +2517,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3276,106 +3276,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3398,31 +3398,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3437,14 +3437,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3458,14 +3458,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3480,7 +3480,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3489,26 +3489,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="54"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3523,16 +3523,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="56"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3546,16 +3546,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="54"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3569,16 +3569,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="56"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3592,16 +3592,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="54"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3615,12 +3615,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3630,25 +3630,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4157,23 +4157,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4192,7 +4192,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4212,13 +4212,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4229,13 +4229,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4246,13 +4246,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4263,11 +4263,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -4276,11 +4276,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -4289,11 +4289,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -4302,11 +4302,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -4315,11 +4315,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -4328,11 +4328,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -4341,11 +4341,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -4354,11 +4354,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4367,11 +4367,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4380,11 +4380,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4393,11 +4393,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4406,11 +4406,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4419,11 +4419,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4432,11 +4432,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4445,11 +4445,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4458,11 +4458,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4471,11 +4471,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4484,11 +4484,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4497,11 +4497,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4510,11 +4510,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4523,11 +4523,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4536,11 +4536,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4549,11 +4549,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4562,11 +4562,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4575,11 +4575,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4588,11 +4588,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4601,11 +4601,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4614,11 +4614,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4627,11 +4627,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4640,11 +4640,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4653,11 +4653,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4666,11 +4666,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4679,11 +4679,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4696,22 +4696,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4726,17 +4726,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4753,9 +4753,9 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -4771,9 +4771,9 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -4789,9 +4789,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -4807,9 +4807,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -4825,9 +4825,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -4843,9 +4843,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -4861,9 +4861,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -4879,9 +4879,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -4897,9 +4897,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -4915,9 +4915,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -4933,9 +4933,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -4951,9 +4951,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -4967,9 +4967,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -4983,9 +4983,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -4998,9 +4998,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -5013,9 +5013,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5028,9 +5028,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5043,36 +5043,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5089,72 +5089,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5165,17 +5165,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5192,73 +5248,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5432,96 +5432,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5544,29 +5544,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -5581,12 +5581,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -5597,12 +5597,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5614,7 +5614,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5623,22 +5623,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -5653,12 +5653,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5669,12 +5669,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5685,12 +5685,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5701,12 +5701,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5717,37 +5717,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6076,23 +6076,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6111,7 +6111,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6131,11 +6131,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -6144,11 +6144,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -6157,11 +6157,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -6170,11 +6170,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -6183,11 +6183,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -6196,11 +6196,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6209,11 +6209,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6222,11 +6222,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6235,11 +6235,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6248,11 +6248,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6261,11 +6261,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6274,11 +6274,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6287,11 +6287,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6300,11 +6300,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6313,11 +6313,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6326,11 +6326,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6339,11 +6339,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6352,11 +6352,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6365,11 +6365,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6378,11 +6378,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6391,11 +6391,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6404,11 +6404,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6417,11 +6417,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6430,11 +6430,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6443,11 +6443,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6456,11 +6456,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6469,11 +6469,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6482,11 +6482,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6495,11 +6495,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6508,11 +6508,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6521,11 +6521,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6534,11 +6534,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6547,11 +6547,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6560,11 +6560,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6573,11 +6573,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -6586,11 +6586,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -6603,22 +6603,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -6633,17 +6633,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -6660,9 +6660,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -6678,9 +6678,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -6696,9 +6696,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -6714,9 +6714,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -6732,9 +6732,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -6750,9 +6750,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -6768,9 +6768,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -6786,9 +6786,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -6804,9 +6804,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -6822,9 +6822,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -6840,9 +6840,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -6858,9 +6858,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -6874,9 +6874,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -6890,9 +6890,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -6905,9 +6905,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -6920,9 +6920,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -6935,9 +6935,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -6950,36 +6950,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -6996,72 +6996,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7072,68 +7072,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7150,22 +7104,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7338,96 +7338,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7450,29 +7450,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -7487,12 +7487,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -7503,12 +7503,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -7520,7 +7520,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7529,22 +7529,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -7559,12 +7559,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7575,10 +7575,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="78"/>
       <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
@@ -7591,10 +7591,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="80"/>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
@@ -7607,10 +7607,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -7623,10 +7623,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -7635,25 +7635,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -7982,23 +7982,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8017,7 +8017,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8037,11 +8037,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8050,11 +8050,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8063,11 +8063,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8076,11 +8076,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8089,11 +8089,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8102,11 +8102,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8115,11 +8115,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8128,11 +8128,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8141,11 +8141,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8154,11 +8154,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8167,11 +8167,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8180,11 +8180,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8193,11 +8193,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8206,11 +8206,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8219,11 +8219,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8232,11 +8232,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8245,11 +8245,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8258,11 +8258,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8271,11 +8271,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8284,11 +8284,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8297,11 +8297,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8310,11 +8310,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8323,11 +8323,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8336,11 +8336,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8349,11 +8349,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8362,11 +8362,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8375,11 +8375,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8388,11 +8388,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8401,11 +8401,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8414,11 +8414,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8427,11 +8427,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8440,11 +8440,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8453,11 +8453,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8466,11 +8466,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8479,11 +8479,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8492,11 +8492,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8509,22 +8509,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8539,17 +8539,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8566,9 +8566,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8584,9 +8584,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -8602,9 +8602,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -8620,9 +8620,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -8638,9 +8638,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -8656,9 +8656,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -8674,9 +8674,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -8692,9 +8692,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -8710,9 +8710,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -8728,9 +8728,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -8746,9 +8746,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -8764,9 +8764,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -8780,9 +8780,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -8796,9 +8796,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -8811,9 +8811,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -8826,9 +8826,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -8841,9 +8841,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -8856,36 +8856,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -8902,72 +8902,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -8978,16 +8978,74 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
     <mergeCell ref="F19:I19"/>
@@ -9004,74 +9062,16 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="F55:J55"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9242,9 +9242,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="38"/>
+    <col min="1" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74a1e15f4094df42/Bureau/Boids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457825D-549A-414B-B4F0-00A90C7C2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B457825D-549A-414B-B4F0-00A90C7C2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501E15FC-3211-4011-B548-A9C0ACD95007}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>Parti dans la bonne direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulté a cadrer le menu </t>
+  </si>
+  <si>
+    <t>classe des cercles à été compléter</t>
+  </si>
+  <si>
+    <t>objectif prochaine rencontre avoir une image avec des cercles qui se déplace selon le seek</t>
   </si>
 </sst>
 </file>
@@ -1180,17 +1189,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1208,23 +1248,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1240,46 +1268,27 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2439,17 +2448,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6328125" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="38"/>
-    <col min="7" max="7" width="9.1796875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.21875" style="38"/>
+    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="38"/>
+    <col min="15" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2517,7 +2526,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3276,106 +3285,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3398,31 +3407,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3437,14 +3446,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3458,14 +3467,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3480,7 +3489,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3489,26 +3498,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="53" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="54"/>
+      <c r="K19" s="68"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3523,16 +3532,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="55" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="56"/>
+      <c r="K20" s="64"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3546,16 +3555,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="53" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="68"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3569,16 +3578,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="55" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="56"/>
+      <c r="K22" s="64"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3592,16 +3601,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="53" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="54"/>
+      <c r="K23" s="68"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3615,12 +3624,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3630,25 +3639,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4157,23 +4166,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4192,7 +4201,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4212,13 +4221,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4229,13 +4238,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4246,55 +4255,67 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
-        <v/>
-      </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="35">
+        <v>2</v>
+      </c>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="7">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
-        <v/>
-      </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="34">
+        <v>2</v>
+      </c>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
-        <v/>
-      </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="35">
+        <v>2</v>
+      </c>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16">
@@ -4302,11 +4323,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -4315,11 +4336,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -4328,11 +4349,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -4341,11 +4362,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -4354,11 +4375,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4367,11 +4388,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4380,11 +4401,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4393,11 +4414,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4406,11 +4427,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4419,11 +4440,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4432,11 +4453,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4445,11 +4466,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4458,11 +4479,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4471,11 +4492,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4484,11 +4505,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4497,11 +4518,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4510,11 +4531,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4523,11 +4544,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4536,11 +4557,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4549,11 +4570,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4562,11 +4583,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4575,11 +4596,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4588,11 +4609,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4601,11 +4622,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4614,11 +4635,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4627,11 +4648,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4640,11 +4661,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4653,11 +4674,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4666,11 +4687,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4679,11 +4700,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4696,22 +4717,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4726,17 +4747,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4753,9 +4774,9 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -4771,9 +4792,9 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -4789,9 +4810,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -4807,9 +4828,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -4825,9 +4846,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -4843,9 +4864,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -4861,9 +4882,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -4879,9 +4900,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -4897,9 +4918,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -4915,9 +4936,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -4933,9 +4954,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -4951,9 +4972,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -4967,9 +4988,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -4983,9 +5004,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -4998,9 +5019,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -5013,9 +5034,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5028,9 +5049,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5043,36 +5064,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5089,72 +5110,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5165,11 +5186,79 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5186,79 +5275,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5432,96 +5453,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5544,29 +5565,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -5581,12 +5602,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -5597,12 +5618,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5614,7 +5635,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5623,22 +5644,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -5653,12 +5674,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5669,12 +5690,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="75"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5685,12 +5706,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5701,12 +5722,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5717,37 +5738,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6076,23 +6097,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6111,7 +6132,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6131,11 +6152,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -6144,11 +6165,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -6157,11 +6178,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -6170,11 +6191,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -6183,11 +6204,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -6196,11 +6217,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6209,11 +6230,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6222,11 +6243,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6235,11 +6256,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6248,11 +6269,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6261,11 +6282,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6274,11 +6295,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6287,11 +6308,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6300,11 +6321,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6313,11 +6334,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6326,11 +6347,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6339,11 +6360,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6352,11 +6373,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6365,11 +6386,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6378,11 +6399,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6391,11 +6412,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6404,11 +6425,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6417,11 +6438,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6430,11 +6451,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6443,11 +6464,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6456,11 +6477,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6469,11 +6490,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6482,11 +6503,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6495,11 +6516,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6508,11 +6529,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6521,11 +6542,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6534,11 +6555,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6547,11 +6568,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6560,11 +6581,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6573,11 +6594,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -6586,11 +6607,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -6603,22 +6624,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -6633,17 +6654,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -6660,9 +6681,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -6678,9 +6699,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -6696,9 +6717,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -6714,9 +6735,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -6732,9 +6753,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -6750,9 +6771,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -6768,9 +6789,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -6786,9 +6807,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -6804,9 +6825,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -6822,9 +6843,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -6840,9 +6861,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -6858,9 +6879,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -6874,9 +6895,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -6890,9 +6911,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -6905,9 +6926,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -6920,9 +6941,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -6935,9 +6956,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -6950,36 +6971,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -6996,72 +7017,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7072,6 +7093,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7088,84 +7187,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7338,96 +7359,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7450,29 +7471,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -7487,12 +7508,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -7503,12 +7524,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -7520,7 +7541,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7529,22 +7550,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -7559,12 +7580,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7575,10 +7596,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="78"/>
       <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
@@ -7591,10 +7612,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="80"/>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
@@ -7607,10 +7628,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -7623,10 +7644,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -7635,25 +7656,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -7982,23 +8003,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8017,7 +8038,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8037,11 +8058,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8050,11 +8071,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8063,11 +8084,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8076,11 +8097,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8089,11 +8110,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8102,11 +8123,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8115,11 +8136,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8128,11 +8149,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8141,11 +8162,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8154,11 +8175,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8167,11 +8188,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8180,11 +8201,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8193,11 +8214,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8206,11 +8227,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8219,11 +8240,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8232,11 +8253,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8245,11 +8266,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8258,11 +8279,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8271,11 +8292,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8284,11 +8305,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8297,11 +8318,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8310,11 +8331,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8323,11 +8344,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8336,11 +8357,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8349,11 +8370,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8362,11 +8383,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8375,11 +8396,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8388,11 +8409,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8401,11 +8422,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8414,11 +8435,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8427,11 +8448,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8440,11 +8461,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8453,11 +8474,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8466,11 +8487,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8479,11 +8500,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8492,11 +8513,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8509,22 +8530,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8539,17 +8560,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8566,9 +8587,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8584,9 +8605,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -8602,9 +8623,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -8620,9 +8641,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -8638,9 +8659,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -8656,9 +8677,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -8674,9 +8695,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -8692,9 +8713,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -8710,9 +8731,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -8728,9 +8749,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -8746,9 +8767,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -8764,9 +8785,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -8780,9 +8801,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -8796,9 +8817,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -8811,9 +8832,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -8826,9 +8847,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -8841,9 +8862,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -8856,36 +8877,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -8902,72 +8923,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -8978,6 +8999,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -8994,84 +9093,6 @@
     <mergeCell ref="G108:I108"/>
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="E116:K116"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9242,9 +9263,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="38"/>
+    <col min="1" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74a1e15f4094df42/Bureau/Boids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B457825D-549A-414B-B4F0-00A90C7C2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501E15FC-3211-4011-B548-A9C0ACD95007}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0583060-EE18-4E0E-A6C6-197ED7798E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="21405" yWindow="-15870" windowWidth="25440" windowHeight="15270" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -560,9 +560,6 @@
     <t>11/11/2022</t>
   </si>
   <si>
-    <t>18/11/2022</t>
-  </si>
-  <si>
     <t>Conception</t>
   </si>
   <si>
@@ -681,6 +678,21 @@
   </si>
   <si>
     <t>objectif prochaine rencontre avoir une image avec des cercles qui se déplace selon le seek</t>
+  </si>
+  <si>
+    <t>22/11/2022</t>
+  </si>
+  <si>
+    <t>Objectif de la rencontre précédente reporté à la prochaine rencontre</t>
+  </si>
+  <si>
+    <t>Atteinte de présentation visuelle des cercles</t>
+  </si>
+  <si>
+    <t>Mise en lumière du manque de documentation pour le projet, rend difficile l'ajout de nouvelles fonctionnalités lorsque ça n'est pas nous qui ont implémenté cette section du code.</t>
+  </si>
+  <si>
+    <t>Difficulté à gérer les merge conflicts lorsque travail de plusieurs équipes sur le même fichier.</t>
   </si>
 </sst>
 </file>
@@ -1189,48 +1201,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1248,11 +1229,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1268,27 +1261,46 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1714,7 +1726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>244252</xdr:colOff>
+      <xdr:colOff>237902</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
@@ -1777,7 +1789,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>249695</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:rowOff>140607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2448,17 +2460,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.21875" style="38"/>
-    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.6328125" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="38"/>
+    <col min="7" max="7" width="9.1796875" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.21875" style="38"/>
+    <col min="15" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2526,7 +2538,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3285,106 +3297,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:J57"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3407,31 +3419,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3446,14 +3458,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3467,14 +3479,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3489,7 +3501,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3498,26 +3510,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="54"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3532,16 +3544,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="56"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3555,16 +3567,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="F21" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="54"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3578,16 +3590,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="56"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3601,16 +3613,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="F23" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="54"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3624,12 +3636,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3639,25 +3651,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -3677,16 +3689,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="H28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="I28" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="J28" s="23">
         <v>6.2499999999999993E-2</v>
@@ -3707,16 +3719,16 @@
         <v>2</v>
       </c>
       <c r="F29" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="H29" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="J29" s="28">
         <v>3.125E-2</v>
@@ -3738,16 +3750,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="J30" s="23">
         <v>1.0416666666666666E-2</v>
@@ -3769,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="J31" s="28">
         <v>1.0416666666666666E-2</v>
@@ -3797,16 +3809,16 @@
         <v>5</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="J32" s="23">
         <v>3.125E-2</v>
@@ -3825,16 +3837,16 @@
         <v>6</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="28">
         <v>1.0416666666666666E-2</v>
@@ -3853,16 +3865,16 @@
         <v>7</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="J34" s="23">
         <v>3.125E-2</v>
@@ -3881,16 +3893,16 @@
         <v>8</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="J35" s="28">
         <v>4.1666666666666664E-2</v>
@@ -3909,16 +3921,16 @@
         <v>9</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="J36" s="23">
         <v>3.125E-2</v>
@@ -3937,16 +3949,16 @@
         <v>10</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="J37" s="28">
         <v>2.0833333333333332E-2</v>
@@ -3965,16 +3977,16 @@
         <v>11</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J38" s="23">
         <v>2.0833333333333332E-2</v>
@@ -3993,16 +4005,16 @@
         <v>12</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="J39" s="28">
         <v>2.0833333333333332E-2</v>
@@ -4021,16 +4033,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="J40" s="23">
         <v>2.0833333333333332E-2</v>
@@ -4049,16 +4061,16 @@
         <v>14</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J41" s="28">
         <v>2.0833333333333332E-2</v>
@@ -4077,16 +4089,16 @@
         <v>15</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="J42" s="23">
         <v>2.0833333333333332E-2</v>
@@ -4166,23 +4178,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4201,7 +4213,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4221,13 +4233,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4238,13 +4250,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4255,13 +4267,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4272,13 +4284,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4289,13 +4301,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4306,68 +4318,84 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="7">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
-        <v/>
-      </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="34">
+        <v>3</v>
+      </c>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
-        <v/>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="35">
+        <v>3</v>
+      </c>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="7">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
-        <v/>
-      </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="34">
+        <v>3</v>
+      </c>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
-        <v/>
-      </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="35">
+        <v>3</v>
+      </c>
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="2:16">
@@ -4375,11 +4403,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4388,11 +4416,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4401,11 +4429,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4414,11 +4442,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4427,11 +4455,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4440,11 +4468,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4453,11 +4481,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4466,11 +4494,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4479,11 +4507,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4492,11 +4520,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4505,11 +4533,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4518,11 +4546,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4531,11 +4559,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4544,11 +4572,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4557,11 +4585,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4570,11 +4598,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4583,11 +4611,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4596,11 +4624,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4609,11 +4637,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4622,11 +4650,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4635,11 +4663,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4648,11 +4676,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4661,11 +4689,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4674,11 +4702,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4687,11 +4715,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4700,11 +4728,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4717,22 +4745,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4747,17 +4775,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4774,9 +4802,9 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -4792,9 +4820,9 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -4810,9 +4838,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -4828,9 +4856,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -4846,9 +4874,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -4864,9 +4892,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -4882,9 +4910,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -4900,9 +4928,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -4918,9 +4946,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -4936,9 +4964,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -4954,9 +4982,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -4972,9 +5000,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -4988,9 +5016,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -5004,9 +5032,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -5019,9 +5047,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -5034,9 +5062,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5049,9 +5077,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5064,36 +5092,36 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5110,72 +5138,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5186,17 +5214,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5213,73 +5297,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5450,99 +5478,103 @@
   <dimension ref="B2:Q127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:K5"/>
+      <selection activeCell="F13" sqref="F13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="F5" s="72">
+        <v>44887</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
+        <v>44894</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5565,29 +5597,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -5602,12 +5634,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -5618,12 +5650,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5635,7 +5667,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5644,22 +5676,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -5674,12 +5706,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5690,12 +5722,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5706,12 +5738,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5722,12 +5754,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5738,37 +5770,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6097,23 +6129,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6132,7 +6164,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6152,11 +6184,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -6165,11 +6197,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -6178,11 +6210,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -6191,11 +6223,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -6204,11 +6236,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -6217,11 +6249,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6230,11 +6262,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6243,11 +6275,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6256,11 +6288,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6269,11 +6301,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6282,11 +6314,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6295,11 +6327,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6308,11 +6340,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6321,11 +6353,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6334,11 +6366,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6347,11 +6379,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6360,11 +6392,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6373,11 +6405,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6386,11 +6418,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6399,11 +6431,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6412,11 +6444,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6425,11 +6457,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6438,11 +6470,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6451,11 +6483,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6464,11 +6496,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6477,11 +6509,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6490,11 +6522,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6503,11 +6535,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6516,11 +6548,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6529,11 +6561,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6542,11 +6574,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6555,11 +6587,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6568,11 +6600,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6581,11 +6613,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6594,11 +6626,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -6607,11 +6639,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -6624,22 +6656,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -6654,17 +6686,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -6681,9 +6713,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -6699,9 +6731,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -6717,9 +6749,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -6735,9 +6767,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -6753,9 +6785,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -6771,9 +6803,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -6789,9 +6821,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -6807,9 +6839,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -6825,9 +6857,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -6843,9 +6875,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -6861,9 +6893,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -6879,9 +6911,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -6895,9 +6927,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -6911,9 +6943,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -6926,9 +6958,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -6941,9 +6973,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -6956,9 +6988,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -6971,36 +7003,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7017,72 +7049,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7093,68 +7125,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7171,22 +7157,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7359,96 +7391,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.5" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7471,29 +7503,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -7508,12 +7540,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -7524,12 +7556,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -7541,7 +7573,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7550,22 +7582,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -7580,12 +7612,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7596,10 +7628,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="78"/>
       <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
@@ -7612,10 +7644,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="80"/>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
@@ -7628,10 +7660,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -7644,10 +7676,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -7656,25 +7688,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8003,23 +8035,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8038,7 +8070,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8058,11 +8090,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8071,11 +8103,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8084,11 +8116,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8097,11 +8129,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8110,11 +8142,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8123,11 +8155,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8136,11 +8168,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8149,11 +8181,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8162,11 +8194,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8175,11 +8207,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8188,11 +8220,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8201,11 +8233,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8214,11 +8246,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8227,11 +8259,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8240,11 +8272,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8253,11 +8285,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8266,11 +8298,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8279,11 +8311,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8292,11 +8324,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8305,11 +8337,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8318,11 +8350,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8331,11 +8363,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8344,11 +8376,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8357,11 +8389,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8370,11 +8402,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8383,11 +8415,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8396,11 +8428,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8409,11 +8441,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8422,11 +8454,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8435,11 +8467,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8448,11 +8480,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8461,11 +8493,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8474,11 +8506,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8487,11 +8519,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8500,11 +8532,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8513,11 +8545,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8530,22 +8562,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.5" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8560,17 +8592,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8587,9 +8619,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8605,9 +8637,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -8623,9 +8655,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -8641,9 +8673,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -8659,9 +8691,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -8677,9 +8709,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -8695,9 +8727,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -8713,9 +8745,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -8731,9 +8763,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -8749,9 +8781,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -8767,9 +8799,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -8785,9 +8817,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -8801,9 +8833,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -8817,9 +8849,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -8832,9 +8864,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -8847,9 +8879,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -8862,9 +8894,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -8877,36 +8909,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.5" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -8923,72 +8955,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -8999,6 +9031,88 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B7:E7"/>
@@ -9011,88 +9125,6 @@
     <mergeCell ref="F13:K13"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="E116:K116"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9263,9 +9295,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="38"/>
+    <col min="1" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74a1e15f4094df42/Bureau/Boids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0583060-EE18-4E0E-A6C6-197ED7798E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{D0583060-EE18-4E0E-A6C6-197ED7798E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C8440E-D34B-4AD3-B2B9-DE66999D2DCA}"/>
   <bookViews>
-    <workbookView xWindow="21405" yWindow="-15870" windowWidth="25440" windowHeight="15270" tabRatio="484" activeTab="1" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="484" activeTab="2" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="192">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -693,6 +693,111 @@
   </si>
   <si>
     <t>Difficulté à gérer les merge conflicts lorsque travail de plusieurs équipes sur le même fichier.</t>
+  </si>
+  <si>
+    <t>Mis a jour reguliere</t>
+  </si>
+  <si>
+    <t>non-fait</t>
+  </si>
+  <si>
+    <t>ameliorer le GUI</t>
+  </si>
+  <si>
+    <t>amelioration a faire</t>
+  </si>
+  <si>
+    <t>Tous les objectifs du sprint 1 on presque tous été atteint avec seulement quelques petits détails qui restent encore à compléter au niveau du UML et des Steering Behaviors.
+Pour le prochain sprint, nous aurons comme priorité d'ajouter et paufiner les quatres premières steering behaviours qui nous ont été présenter et de faire apparaitre des 
+éléments qui permettent de comprendre la simulation comme des flèches présentant les vecteurs et leur direction ou encore un hover qui présente la valeur de tous les 
+paramètres des balles.</t>
+  </si>
+  <si>
+    <t>il serait idéal d'ajouter plus de commentaire au code pour pouvoir mieux comprendre ce que chaque classe fait afin de mieux débugger le programme</t>
+  </si>
+  <si>
+    <t>Il serait idéal de mieux communiquer les changements qui sont fait dans les classes afin d'éviter des conflits lors des pull et des push sur github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le client à été très satisfait du travail qui à été remis à date </t>
+  </si>
+  <si>
+    <t>Ajouter les nouvelles seeking behaviors montrer par le client</t>
+  </si>
+  <si>
+    <t>1 - Développement</t>
+  </si>
+  <si>
+    <t>Ajouter les fonctionnalités aux boutons du control pannel</t>
+  </si>
+  <si>
+    <t>Paufiner les steering behaviours qui sont déjà implémenter</t>
+  </si>
+  <si>
+    <t>Documenter</t>
+  </si>
+  <si>
+    <t>2 - Documenter</t>
+  </si>
+  <si>
+    <t>Documenter les différentes classes du code</t>
+  </si>
+  <si>
+    <t>Ajouter élément qui permettent de comprendre la simulation (flèche,vitesse,force)</t>
+  </si>
+  <si>
+    <t>Activer et désactiver les rebondissement déjà implémenter</t>
+  </si>
+  <si>
+    <t>Paufiner le flee et le seek</t>
+  </si>
+  <si>
+    <t>3 - Paufiner les steer…</t>
+  </si>
+  <si>
+    <t>Ajouter le Pursuit (steering behaviors)</t>
+  </si>
+  <si>
+    <t>1 - Ajouter les nouvel…</t>
+  </si>
+  <si>
+    <t>Ajouter le evade (steering behaviors)</t>
+  </si>
+  <si>
+    <t>Ajouter le bouton Start</t>
+  </si>
+  <si>
+    <t>2 - Ajouter les foncti…</t>
+  </si>
+  <si>
+    <t>Ajouter le bouton Reset</t>
+  </si>
+  <si>
+    <t>Ajouter les flèche de vitesse</t>
+  </si>
+  <si>
+    <t>5 - Ajouter élément qu…</t>
+  </si>
+  <si>
+    <t>Ajouter les flèche de force</t>
+  </si>
+  <si>
+    <t>Ajouter drop down menu</t>
+  </si>
+  <si>
+    <t>Documenter les classes du code</t>
+  </si>
+  <si>
+    <t>4 - Documenter les dif…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séparer le bouncing </t>
+  </si>
+  <si>
+    <t>6 - Activer et désacti…</t>
+  </si>
+  <si>
+    <t>Ajouter sur un clique voir informations</t>
   </si>
 </sst>
 </file>
@@ -1201,17 +1306,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1229,23 +1365,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1261,46 +1385,27 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2460,17 +2565,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6328125" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="38"/>
-    <col min="7" max="7" width="9.1796875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.21875" style="38"/>
+    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="38"/>
+    <col min="15" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2538,7 +2643,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3297,106 +3402,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:J55"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124:K124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3419,31 +3524,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3458,14 +3563,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3479,14 +3584,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3501,7 +3606,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3510,26 +3615,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="53" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="54"/>
+      <c r="K19" s="68"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3544,16 +3649,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="55" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="56"/>
+      <c r="K20" s="64"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3567,16 +3672,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="53" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="68"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3590,16 +3695,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="55" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="56"/>
+      <c r="K22" s="64"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3613,16 +3718,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="53" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="54"/>
+      <c r="K23" s="68"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3636,12 +3741,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3651,25 +3756,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4178,23 +4283,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4213,7 +4318,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4233,13 +4338,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4250,13 +4355,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4267,13 +4372,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4284,13 +4389,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4301,13 +4406,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4318,13 +4423,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4335,13 +4440,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4352,13 +4457,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4369,13 +4474,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4386,13 +4491,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4403,11 +4508,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4416,11 +4521,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4429,11 +4534,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4442,11 +4547,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4455,11 +4560,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4468,11 +4573,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4481,11 +4586,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4494,11 +4599,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4507,11 +4612,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4520,11 +4625,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4533,11 +4638,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4546,11 +4651,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4559,11 +4664,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4572,11 +4677,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4585,11 +4690,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4598,11 +4703,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4611,11 +4716,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4624,11 +4729,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4637,11 +4742,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4650,11 +4755,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4663,11 +4768,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4676,11 +4781,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4689,11 +4794,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4702,11 +4807,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4715,11 +4820,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4728,11 +4833,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4745,22 +4850,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4775,17 +4880,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4802,11 +4907,17 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="31"/>
+      <c r="G96" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="30">
+        <v>1</v>
+      </c>
+      <c r="K96" s="31">
+        <v>0.9</v>
+      </c>
       <c r="P96" s="13">
         <v>0</v>
       </c>
@@ -4820,11 +4931,17 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="33"/>
+      <c r="G97" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="32">
+        <v>0</v>
+      </c>
+      <c r="K97" s="33">
+        <v>0</v>
+      </c>
       <c r="P97" s="13">
         <v>0.1</v>
       </c>
@@ -4838,11 +4955,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="31"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="30">
+        <v>1</v>
+      </c>
+      <c r="K98" s="31">
+        <v>1</v>
+      </c>
       <c r="P98" s="13">
         <v>0.2</v>
       </c>
@@ -4856,11 +4977,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="33"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="32">
+        <v>1</v>
+      </c>
+      <c r="K99" s="33">
+        <v>1</v>
+      </c>
       <c r="P99" s="13">
         <v>0.3</v>
       </c>
@@ -4874,11 +4999,17 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="31"/>
+      <c r="G100" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K100" s="31">
+        <v>0.8</v>
+      </c>
       <c r="P100" s="13">
         <v>0.4</v>
       </c>
@@ -4892,11 +5023,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="33"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="32">
+        <v>1</v>
+      </c>
+      <c r="K101" s="33">
+        <v>1</v>
+      </c>
       <c r="P101" s="13">
         <v>0.5</v>
       </c>
@@ -4910,11 +5045,15 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="31"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="30">
+        <v>1</v>
+      </c>
+      <c r="K102" s="31">
+        <v>1</v>
+      </c>
       <c r="P102" s="13">
         <v>0.6</v>
       </c>
@@ -4928,11 +5067,15 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="33"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="32">
+        <v>1</v>
+      </c>
+      <c r="K103" s="33">
+        <v>1</v>
+      </c>
       <c r="P103" s="13">
         <v>0.7</v>
       </c>
@@ -4946,11 +5089,15 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="31"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="30">
+        <v>1</v>
+      </c>
+      <c r="K104" s="31">
+        <v>1</v>
+      </c>
       <c r="P104" s="13">
         <v>0.8</v>
       </c>
@@ -4964,11 +5111,17 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="33"/>
+      <c r="G105" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="32">
+        <v>1</v>
+      </c>
+      <c r="K105" s="33">
+        <v>0.7</v>
+      </c>
       <c r="P105" s="13">
         <v>0.9</v>
       </c>
@@ -4982,11 +5135,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="31"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="30">
+        <v>1</v>
+      </c>
+      <c r="K106" s="31">
+        <v>1</v>
+      </c>
       <c r="P106" s="13">
         <v>1</v>
       </c>
@@ -5000,11 +5157,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="33"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
+      <c r="J107" s="32">
+        <v>1</v>
+      </c>
+      <c r="K107" s="33">
+        <v>1</v>
+      </c>
       <c r="P107" s="13"/>
     </row>
     <row r="108" spans="5:16">
@@ -5016,11 +5177,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="31"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="30">
+        <v>1</v>
+      </c>
+      <c r="K108" s="31">
+        <v>1</v>
+      </c>
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="5:16">
@@ -5032,11 +5197,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="33"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="32">
+        <v>1</v>
+      </c>
+      <c r="K109" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="5:16">
       <c r="E110" s="6">
@@ -5047,11 +5216,15 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="31"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="30">
+        <v>1</v>
+      </c>
+      <c r="K110" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="5:16">
       <c r="E111" s="7" t="str">
@@ -5062,9 +5235,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5077,9 +5250,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5092,36 +5265,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5134,91 +5309,165 @@
       <c r="K120" s="9"/>
     </row>
     <row r="121" spans="4:11">
-      <c r="E121" s="6" t="str">
+      <c r="E121" s="6">
         <f>IF(ISBLANK(F121), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="F121" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
-      <c r="E122" s="7" t="str">
+      <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
-        <v/>
-      </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+        <v>16</v>
+      </c>
+      <c r="F122" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
-      <c r="E123" s="6" t="str">
+      <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
-        <v/>
-      </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+        <v>17</v>
+      </c>
+      <c r="F123" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
         <f>IF(COUNTA(F121:K126)&lt;2, "Attention, vous devez définir au moins deux éléments descriptifs.", COUNTA(F121:K126)&amp;IF(COUNTA(F121:K126)&gt;1," éléments ont été exprimés"," élément a été exprimé"))</f>
-        <v>Attention, vous devez définir au moins deux éléments descriptifs.</v>
+        <v>3 éléments ont été exprimés</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5235,79 +5484,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5477,104 +5658,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:K13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72">
+      <c r="F5" s="59">
         <v>44887</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59">
         <v>44894</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5597,52 +5778,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - Développement</v>
       </c>
       <c r="Q13" s="2" t="str" cm="1">
-        <f t="array" ref="Q13">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v/>
+        <f t="array" ref="Q13:Q15">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
+        <v>1 - Développement</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
-        <v/>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>2 - Documenter</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <v>2 - Documenter</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -5650,24 +5838,27 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
+        <v/>
+      </c>
+      <c r="Q15" s="2" t="str">
         <v/>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="K16" s="8" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins une orientation.</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" ht="15.5">
+        <v>2 orientations ont été déterminées</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5676,131 +5867,170 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - Ajouter les nouvel…</v>
       </c>
       <c r="Q19" s="2" t="str" cm="1">
-        <f t="array" ref="Q19">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v/>
+        <f t="array" ref="Q19:Q24">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
+        <v>1 - Ajouter les nouvel…</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="7">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
-        <v/>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2 - Ajouter les foncti…</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <v>2 - Ajouter les foncti…</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="6">
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
-        <v/>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="77"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3 - Paufiner les steer…</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <v>3 - Paufiner les steer…</v>
       </c>
     </row>
     <row r="22" spans="4:17">
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="7">
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
-        <v/>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="75"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4 - Documenter les dif…</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <v>4 - Documenter les dif…</v>
       </c>
     </row>
     <row r="23" spans="4:17">
-      <c r="E23" s="6" t="str">
+      <c r="E23" s="6">
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
-        <v/>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="77"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5 - Ajouter élément qu…</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <v>5 - Ajouter élément qu…</v>
       </c>
     </row>
     <row r="24" spans="4:17">
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="7">
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
-        <v/>
-      </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="75"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6 - Activer et désacti…</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <v>6 - Activer et désacti…</v>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins deux objectifs.</v>
-      </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+        <v>6 objectifs ont été déterminées</v>
+      </c>
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -5815,16 +6045,28 @@
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="6" t="str">
+      <c r="E28" s="6">
         <f>IF(ISBLANK(F28), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P28" s="12">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -5833,16 +6075,28 @@
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="7">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
-        <v/>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="P29" s="12">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -5852,16 +6106,28 @@
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="6" t="str">
+      <c r="E30" s="6">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
-        <v/>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -5871,128 +6137,224 @@
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="7">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="28">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="P31" s="12">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="6">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P32" s="12">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="7">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
-        <v/>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="P33" s="12">
         <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="6" t="str">
+      <c r="E34" s="6">
         <f>IF(ISBLANK(F34), "", MAX($E$28:E33)+1)</f>
-        <v/>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="23">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="P34" s="12">
         <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="7">
         <f>IF(ISBLANK(F35), "", MAX($E$28:E34)+1)</f>
-        <v/>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="28">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="P35" s="12">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="6" t="str">
+      <c r="E36" s="6">
         <f>IF(ISBLANK(F36), "", MAX($E$28:E35)+1)</f>
-        <v/>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="23">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P36" s="12">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="7">
         <f>IF(ISBLANK(F37), "", MAX($E$28:E36)+1)</f>
-        <v/>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="28">
+        <v>5.2083333333333329E-2</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="P37" s="12">
         <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="6" t="str">
+      <c r="E38" s="6">
         <f>IF(ISBLANK(F38), "", MAX($E$28:E37)+1)</f>
-        <v/>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="23">
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P38" s="12">
         <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
@@ -6113,7 +6475,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="8" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins quatre tâches.</v>
+        <v>11 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
         <f t="shared" si="1"/>
@@ -6129,23 +6491,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6164,7 +6526,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6184,11 +6546,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -6197,11 +6559,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -6210,11 +6572,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -6223,11 +6585,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -6236,11 +6598,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -6249,11 +6611,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6262,11 +6624,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6275,11 +6637,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6288,11 +6650,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6301,11 +6663,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6314,11 +6676,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6327,11 +6689,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6340,11 +6702,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6353,11 +6715,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6366,11 +6728,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6379,11 +6741,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6392,11 +6754,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6405,11 +6767,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6418,11 +6780,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6431,11 +6793,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6444,11 +6806,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6457,11 +6819,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6470,11 +6832,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6483,11 +6845,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6496,11 +6858,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6509,11 +6871,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6522,11 +6884,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6535,11 +6897,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6548,11 +6910,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6561,11 +6923,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6574,11 +6936,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6587,11 +6949,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6600,11 +6962,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6613,11 +6975,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6626,11 +6988,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -6639,11 +7001,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -6656,22 +7018,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -6686,17 +7048,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -6705,17 +7067,17 @@
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="6" t="str">
+      <c r="E96" s="6">
         <f>IF(ISBLANK(E28),"",E28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F96" s="17" t="str">
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+        <v>Paufiner le flee et le seek</v>
+      </c>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -6723,17 +7085,17 @@
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E97" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F97" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+        <v>Ajouter le Pursuit (steering behaviors)</v>
+      </c>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -6741,17 +7103,17 @@
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E98" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F98" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+        <v>Ajouter le evade (steering behaviors)</v>
+      </c>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -6759,17 +7121,17 @@
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E99" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F99" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+        <v>Ajouter le bouton Start</v>
+      </c>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -6777,17 +7139,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E100" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F100" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+        <v>Ajouter le bouton Reset</v>
+      </c>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -6795,17 +7157,17 @@
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E101" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F101" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+        <v>Ajouter les flèche de vitesse</v>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -6813,17 +7175,17 @@
       </c>
     </row>
     <row r="102" spans="5:16">
-      <c r="E102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E102" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F102" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+        <v>Ajouter les flèche de force</v>
+      </c>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -6831,17 +7193,17 @@
       </c>
     </row>
     <row r="103" spans="5:16">
-      <c r="E103" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E103" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F103" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+        <v>Ajouter drop down menu</v>
+      </c>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -6849,17 +7211,17 @@
       </c>
     </row>
     <row r="104" spans="5:16">
-      <c r="E104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E104" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F104" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+        <v>Documenter les classes du code</v>
+      </c>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -6867,17 +7229,17 @@
       </c>
     </row>
     <row r="105" spans="5:16">
-      <c r="E105" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E105" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F105" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+        <v xml:space="preserve">Séparer le bouncing </v>
+      </c>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -6885,17 +7247,17 @@
       </c>
     </row>
     <row r="106" spans="5:16">
-      <c r="E106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E106" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F106" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+        <v>Ajouter sur un clique voir informations</v>
+      </c>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -6911,9 +7273,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -6927,9 +7289,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -6943,9 +7305,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -6958,9 +7320,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -6973,9 +7335,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -6988,9 +7350,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7003,36 +7365,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7049,72 +7411,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7125,6 +7487,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7141,84 +7581,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7301,7 +7663,7 @@
       <formula>COUNTA(F121:F126)&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations xWindow="1116" yWindow="608" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Élément rétrospectif" prompt="Veuillez exprimer un élément clé issu de vos réflexion sur le déroulement de ce sprint, notamment, une façon d’améliorer la qualité ainsi que l’efficacité._x000a__x000a_Soyez concis et précis." sqref="F121:K126" xr:uid="{A759F848-D86D-41EC-AA39-8775D521C497}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commentaire général sur la tâche" prompt="Veuillez saisir un très court texte représentant votre état d'esprit lié à cette tâche. Soyez court et concis." sqref="G96:I113" xr:uid="{60775D91-3C84-4D52-B744-78EE0709DFC6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Conclusion de l'examination" prompt="Veuillez faire un résumé des conclusions que l'examination du travail a permi de réaliser. _x000a__x000a_Vous pouvez utiliser ALT-ENTER pour entrer un saut de ligne dans une cellule multiligne." sqref="E117:K117" xr:uid="{00B77B5B-C4F0-4C1C-BD2F-189F76F220B0}"/>
@@ -7391,96 +7753,96 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.08984375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" style="2"/>
-    <col min="15" max="15" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.21875" style="2"/>
+    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.5" customHeight="1">
+    <row r="5" spans="2:17" ht="14.55" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.75" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.55" customHeight="1">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5" customHeight="1">
-      <c r="B9" s="67">
+    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7503,29 +7865,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.6">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6" t="str">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v/>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v/>
@@ -7540,12 +7902,12 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v/>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v/>
@@ -7556,12 +7918,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -7573,7 +7935,7 @@
         <v>Attention, vous devez définir au moins une orientation.</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.6">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7582,22 +7944,22 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6" t="str">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v/>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v/>
@@ -7612,12 +7974,12 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v/>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7628,10 +7990,10 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v/>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="78"/>
       <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
@@ -7644,10 +8006,10 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v/>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="80"/>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
@@ -7660,10 +8022,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -7676,10 +8038,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -7688,25 +8050,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>Attention, vous devez définir au moins deux objectifs.</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.6">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8035,23 +8397,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B49" s="67">
+    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8070,7 +8432,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.6">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8090,11 +8452,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8103,11 +8465,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8116,11 +8478,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8129,11 +8491,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8142,11 +8504,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8155,11 +8517,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8168,11 +8530,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8181,11 +8543,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8194,11 +8556,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8207,11 +8569,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8220,11 +8582,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8233,11 +8595,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8246,11 +8608,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8259,11 +8621,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8272,11 +8634,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8285,11 +8647,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8298,11 +8660,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8311,11 +8673,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8324,11 +8686,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8337,11 +8699,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8350,11 +8712,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8363,11 +8725,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8376,11 +8738,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8389,11 +8751,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8402,11 +8764,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8415,11 +8777,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8428,11 +8790,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8441,11 +8803,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8454,11 +8816,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8467,11 +8829,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8480,11 +8842,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8493,11 +8855,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8506,11 +8868,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8519,11 +8881,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8532,11 +8894,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8545,11 +8907,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8562,22 +8924,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5" customHeight="1">
-      <c r="B92" s="67">
+    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8592,17 +8954,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.6">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8619,9 +8981,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v/>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8637,9 +8999,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -8655,9 +9017,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -8673,9 +9035,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -8691,9 +9053,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -8709,9 +9071,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -8727,9 +9089,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -8745,9 +9107,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -8763,9 +9125,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -8781,9 +9143,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -8799,9 +9161,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -8817,9 +9179,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -8833,9 +9195,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -8849,9 +9211,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -8864,9 +9226,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -8879,9 +9241,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -8894,9 +9256,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -8909,36 +9271,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.6">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.5" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.6">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -8955,72 +9317,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9031,14 +9393,75 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
@@ -9055,76 +9478,15 @@
     <mergeCell ref="F69:J69"/>
     <mergeCell ref="F72:J72"/>
     <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
     <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9295,9 +9657,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="38"/>
+    <col min="1" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74a1e15f4094df42/Bureau/Boids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\gitLocal\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{D0583060-EE18-4E0E-A6C6-197ED7798E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C8440E-D34B-4AD3-B2B9-DE66999D2DCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599774D-6E25-4B07-9503-37E3373D9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="484" activeTab="2" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="212">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -798,6 +796,66 @@
   </si>
   <si>
     <t>Ajouter sur un clique voir informations</t>
+  </si>
+  <si>
+    <t>Vitesse max</t>
+  </si>
+  <si>
+    <t>Persuit</t>
+  </si>
+  <si>
+    <t>Evade</t>
+  </si>
+  <si>
+    <t>Border repulsion probleme avec attraction repulsion (réparer par andrez)</t>
+  </si>
+  <si>
+    <t>Pas vraiment de difficulté (cb)</t>
+  </si>
+  <si>
+    <t>aujourdhui star reset (cb, thomas)</t>
+  </si>
+  <si>
+    <t>fleches vitesse forces (fleches forces)</t>
+  </si>
+  <si>
+    <t>Documenter les classes répartition des docs</t>
+  </si>
+  <si>
+    <t>3 niveaux afficher le rond, indicaton pertinnentes sur les corps, vitesse et la force (steering), information pertinnetnts reliers au behaviors. (Points random au centre du cercle)</t>
+  </si>
+  <si>
+    <t>Optimiser les behaviours</t>
+  </si>
+  <si>
+    <t>start reset</t>
+  </si>
+  <si>
+    <t>Start Reset Button</t>
+  </si>
+  <si>
+    <t>Commentaires et tests</t>
+  </si>
+  <si>
+    <t>3 - Start Reset Button…</t>
+  </si>
+  <si>
+    <t>Afficher stats</t>
+  </si>
+  <si>
+    <t>2 - 3 niveaux afficher…</t>
+  </si>
+  <si>
+    <t>3 niveaux d'affichages indicaton pertinnentes sur les corps</t>
+  </si>
+  <si>
+    <t>vitesse et la force (steering)</t>
+  </si>
+  <si>
+    <t>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</t>
+  </si>
+  <si>
+    <t>2 - 3 niveaux d'affich…</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1172,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1306,48 +1364,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1365,11 +1392,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1385,27 +1424,46 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1425,11 +1483,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2263,7 +2325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2565,17 +2627,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.6640625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.21875" style="38"/>
-    <col min="7" max="7" width="9.21875" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.7109375" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" style="38"/>
+    <col min="7" max="7" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.21875" style="38"/>
+    <col min="15" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2643,7 +2705,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9" ht="15">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3402,106 +3464,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F124" sqref="F124:K124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.65" customHeight="1">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.65" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.65" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3524,31 +3586,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3563,14 +3625,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3584,14 +3646,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3606,7 +3668,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3615,26 +3677,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="54"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3649,16 +3711,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="56"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3672,16 +3734,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="54"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3695,16 +3757,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="56"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3718,16 +3780,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="54"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3741,12 +3803,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3756,25 +3818,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4283,23 +4345,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4318,7 +4380,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4338,13 +4400,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4355,13 +4417,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4372,13 +4434,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4389,13 +4451,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4406,13 +4468,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4423,13 +4485,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4440,13 +4502,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4457,13 +4519,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4474,13 +4536,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4491,13 +4553,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4508,11 +4570,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4521,11 +4583,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4534,11 +4596,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4547,11 +4609,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4560,11 +4622,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4573,11 +4635,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4586,11 +4648,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4599,11 +4661,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4612,11 +4674,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4625,11 +4687,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4638,11 +4700,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4651,11 +4713,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4664,11 +4726,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4677,11 +4739,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4690,11 +4752,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4703,11 +4765,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4716,11 +4778,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4729,11 +4791,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4742,11 +4804,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4755,11 +4817,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4768,11 +4830,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4781,11 +4843,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4794,11 +4856,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4807,11 +4869,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4820,11 +4882,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4833,11 +4895,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4850,22 +4912,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4880,17 +4942,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4907,11 +4969,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -4931,11 +4993,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -4955,9 +5017,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -4977,9 +5039,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -4999,11 +5061,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5023,9 +5085,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5045,9 +5107,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5067,9 +5129,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5089,9 +5151,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5111,11 +5173,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5135,9 +5197,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5157,9 +5219,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5177,9 +5239,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5197,9 +5259,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5216,9 +5278,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5235,9 +5297,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5250,9 +5312,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5265,38 +5327,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5313,78 +5375,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5395,17 +5457,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5422,73 +5540,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5658,104 +5720,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.65" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>44887</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.65" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>44894</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.65" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5778,31 +5840,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5817,14 +5879,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5838,12 +5900,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5858,7 +5920,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.6">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5867,28 +5929,28 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
-        <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
+        <f>IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
       </c>
       <c r="Q19" s="2" t="str" cm="1">
@@ -5901,18 +5963,18 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - Ajouter les foncti…</v>
       </c>
       <c r="Q20" s="2" t="str">
@@ -5924,18 +5986,18 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(F21),"", E21&amp; " - " &amp;IF(LEN(F21)&lt;$P$11,F21,LEFT(F21,$P$11) &amp; "…"))</f>
         <v>3 - Paufiner les steer…</v>
       </c>
       <c r="Q21" s="2" t="str">
@@ -5947,18 +6009,18 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(F22),"", E22&amp; " - " &amp;IF(LEN(F22)&lt;$P$11,F22,LEFT(F22,$P$11) &amp; "…"))</f>
         <v>4 - Documenter les dif…</v>
       </c>
       <c r="Q22" s="2" t="str">
@@ -5970,18 +6032,18 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="77"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(F23),"", E23&amp; " - " &amp;IF(LEN(F23)&lt;$P$11,F23,LEFT(F23,$P$11) &amp; "…"))</f>
         <v>5 - Ajouter élément qu…</v>
       </c>
       <c r="Q23" s="2" t="str">
@@ -5993,18 +6055,18 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(F24),"", E24&amp; " - " &amp;IF(LEN(F24)&lt;$P$11,F24,LEFT(F24,$P$11) &amp; "…"))</f>
         <v>6 - Activer et désacti…</v>
       </c>
       <c r="Q24" s="2" t="str">
@@ -6012,25 +6074,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6129,7 +6191,7 @@
         <v>87</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
+        <f t="shared" ref="P30:P46" si="0">P29+$P$27</f>
         <v>3.125E-2</v>
       </c>
       <c r="Q30" s="13" t="s">
@@ -6160,7 +6222,7 @@
         <v>84</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -6188,7 +6250,7 @@
         <v>84</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
@@ -6216,7 +6278,7 @@
         <v>86</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
@@ -6244,7 +6306,7 @@
         <v>86</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
@@ -6272,7 +6334,7 @@
         <v>84</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -6300,7 +6362,7 @@
         <v>84</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
     </row>
@@ -6328,7 +6390,7 @@
         <v>85</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
@@ -6356,7 +6418,7 @@
         <v>87</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
@@ -6372,7 +6434,7 @@
       <c r="J39" s="28"/>
       <c r="K39" s="29"/>
       <c r="P39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
@@ -6388,7 +6450,7 @@
       <c r="J40" s="23"/>
       <c r="K40" s="24"/>
       <c r="P40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
@@ -6404,7 +6466,7 @@
       <c r="J41" s="28"/>
       <c r="K41" s="29"/>
       <c r="P41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
@@ -6420,7 +6482,7 @@
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="P42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15624999999999997</v>
       </c>
     </row>
@@ -6436,7 +6498,7 @@
       <c r="J43" s="28"/>
       <c r="K43" s="29"/>
       <c r="P43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
@@ -6452,7 +6514,7 @@
       <c r="J44" s="23"/>
       <c r="K44" s="24"/>
       <c r="P44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17708333333333329</v>
       </c>
     </row>
@@ -6468,7 +6530,7 @@
       <c r="J45" s="28"/>
       <c r="K45" s="29"/>
       <c r="P45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
@@ -6478,7 +6540,7 @@
         <v>11 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1979166666666666</v>
       </c>
     </row>
@@ -6491,23 +6553,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6526,7 +6588,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6542,119 +6604,147 @@
       <c r="P52" s="12"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="E53" s="6" t="str">
+      <c r="E53" s="6">
         <f>IF(ISBLANK(F53), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="34">
+        <v>2</v>
+      </c>
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
-        <v/>
-      </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="35">
+        <v>2</v>
+      </c>
       <c r="P54" s="12"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
-        <v/>
-      </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="34">
+        <v>2</v>
+      </c>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
-        <v/>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="35">
+        <v>2</v>
+      </c>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="7">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
-        <v/>
-      </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="34">
+        <v>1</v>
+      </c>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
-        <v/>
-      </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+        <v>6</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="7">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
-        <v/>
-      </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
-        <v/>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="7">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
-        <v/>
-      </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6663,11 +6753,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6676,11 +6766,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6689,11 +6779,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6702,11 +6792,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6715,11 +6805,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6728,11 +6818,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6741,11 +6831,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6754,11 +6844,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6767,11 +6857,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6780,11 +6870,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6793,11 +6883,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6806,11 +6896,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6819,11 +6909,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6832,11 +6922,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6845,11 +6935,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6858,11 +6948,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6871,11 +6961,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6884,11 +6974,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6897,11 +6987,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -6910,11 +7000,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -6923,11 +7013,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -6936,11 +7026,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -6949,11 +7039,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -6962,11 +7052,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -6975,11 +7065,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -6988,11 +7078,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7001,11 +7091,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7018,22 +7108,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7048,17 +7138,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7072,12 +7162,12 @@
         <v>1</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
+        <f>IF(ISBLANK(F28),"",F28)</f>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -7086,16 +7176,16 @@
     </row>
     <row r="97" spans="5:16">
       <c r="E97" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E29),"",E29)</f>
         <v>2</v>
       </c>
       <c r="F97" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F29),"",F29)</f>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -7104,16 +7194,16 @@
     </row>
     <row r="98" spans="5:16">
       <c r="E98" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E30),"",E30)</f>
         <v>3</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F30),"",F30)</f>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -7122,16 +7212,16 @@
     </row>
     <row r="99" spans="5:16">
       <c r="E99" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E31),"",E31)</f>
         <v>4</v>
       </c>
       <c r="F99" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F31),"",F31)</f>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -7140,16 +7230,16 @@
     </row>
     <row r="100" spans="5:16">
       <c r="E100" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E32),"",E32)</f>
         <v>5</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F32),"",F32)</f>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -7158,16 +7248,16 @@
     </row>
     <row r="101" spans="5:16">
       <c r="E101" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E33),"",E33)</f>
         <v>6</v>
       </c>
       <c r="F101" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F33),"",F33)</f>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -7176,16 +7266,16 @@
     </row>
     <row r="102" spans="5:16">
       <c r="E102" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E34),"",E34)</f>
         <v>7</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F34),"",F34)</f>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -7194,16 +7284,16 @@
     </row>
     <row r="103" spans="5:16">
       <c r="E103" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E35),"",E35)</f>
         <v>8</v>
       </c>
       <c r="F103" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F35),"",F35)</f>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -7212,16 +7302,16 @@
     </row>
     <row r="104" spans="5:16">
       <c r="E104" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E36),"",E36)</f>
         <v>9</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F36),"",F36)</f>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -7230,16 +7320,16 @@
     </row>
     <row r="105" spans="5:16">
       <c r="E105" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E37),"",E37)</f>
         <v>10</v>
       </c>
       <c r="F105" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F37),"",F37)</f>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -7248,16 +7338,16 @@
     </row>
     <row r="106" spans="5:16">
       <c r="E106" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E38),"",E38)</f>
         <v>11</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(F38),"",F38)</f>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -7266,135 +7356,135 @@
     </row>
     <row r="107" spans="5:16">
       <c r="E107" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E39),"",E39)</f>
         <v/>
       </c>
       <c r="F107" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+        <f>IF(ISBLANK(F39),"",F39)</f>
+        <v/>
+      </c>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
     </row>
     <row r="108" spans="5:16">
       <c r="E108" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E40),"",E40)</f>
         <v/>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+        <f>IF(ISBLANK(F40),"",F40)</f>
+        <v/>
+      </c>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="5:16">
       <c r="E109" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E41),"",E41)</f>
         <v/>
       </c>
       <c r="F109" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+        <f>IF(ISBLANK(F41),"",F41)</f>
+        <v/>
+      </c>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
     <row r="110" spans="5:16">
       <c r="E110" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E42),"",E42)</f>
         <v/>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+        <f>IF(ISBLANK(F42),"",F42)</f>
+        <v/>
+      </c>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
     <row r="111" spans="5:16">
       <c r="E111" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(E43),"",E43)</f>
         <v/>
       </c>
       <c r="F111" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+        <f>IF(ISBLANK(F43),"",F43)</f>
+        <v/>
+      </c>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
     <row r="112" spans="5:16">
       <c r="E112" s="6" t="str">
-        <f t="shared" ref="E112:F113" si="3">IF(ISBLANK(E44),"",E44)</f>
+        <f>IF(ISBLANK(E44),"",E44)</f>
         <v/>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+        <f>IF(ISBLANK(F44),"",F44)</f>
+        <v/>
+      </c>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
     <row r="113" spans="4:11">
       <c r="E113" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(E45),"",E45)</f>
         <v/>
       </c>
       <c r="F113" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+        <f>IF(ISBLANK(F45),"",F45)</f>
+        <v/>
+      </c>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.65" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7411,72 +7501,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7487,68 +7577,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7565,22 +7609,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7749,100 +7839,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:K5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.21875" style="2"/>
-    <col min="15" max="15" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.9" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="2.5499999999999998" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:17" ht="2.65" customHeight="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
-    <row r="5" spans="2:17" ht="14.55" customHeight="1">
+    <row r="5" spans="2:17" ht="14.65" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" ht="7.8" customHeight="1"/>
-    <row r="7" spans="2:17" ht="14.55" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="F5" s="72">
+        <v>44894</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
+    <row r="7" spans="2:17" ht="14.65" customHeight="1">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
+        <v>44901</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
-    <row r="9" spans="2:17" ht="8.5500000000000007" customHeight="1">
-      <c r="B9" s="62">
+    <row r="9" spans="2:17" ht="8.65" customHeight="1">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18">
-      <c r="B10" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7865,52 +7959,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - Développement</v>
       </c>
       <c r="Q13" s="2" t="str" cm="1">
-        <f t="array" ref="Q13">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v/>
+        <f t="array" ref="Q13:Q15">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
+        <v>1 - Développement</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
-        <v/>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>2 - Documenter</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <v>2 - Documenter</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -7918,24 +8019,27 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
+        <v/>
+      </c>
+      <c r="Q15" s="2" t="str">
         <v/>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="K16" s="8" t="str">
         <f>IF(COUNTA(F13:F15)=0, "Attention, vous devez définir au moins une orientation.", COUNTA(F13:F15)&amp;IF(COUNTA(F13:F15)&gt;1," orientations ont été déterminées"," orientation a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins une orientation.</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" ht="15.6">
+        <v>2 orientations ont été déterminées</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -7944,77 +8048,102 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v/>
+        <v>1 - Optimiser les beha…</v>
       </c>
       <c r="Q19" s="2" t="str" cm="1">
-        <f t="array" ref="Q19">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v/>
+        <f t="array" ref="Q19:Q23">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
+        <v>1 - Optimiser les beha…</v>
       </c>
     </row>
     <row r="20" spans="4:17">
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="7">
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
-        <v/>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="82"/>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
+        <v>2 - 3 niveaux d'affich…</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <v>2 - 3 niveaux d'affich…</v>
       </c>
     </row>
     <row r="21" spans="4:17">
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="6">
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
-        <v/>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="78" t="s">
+        <v>167</v>
+      </c>
       <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3 - Start Reset Button…</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <v>3 - Start Reset Button…</v>
       </c>
     </row>
     <row r="22" spans="4:17">
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="7">
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
-        <v/>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="80"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="80" t="s">
+        <v>171</v>
+      </c>
       <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4 - Commentaires et te…</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <v>4 - Commentaires et te…</v>
       </c>
     </row>
     <row r="23" spans="4:17">
@@ -8022,26 +8151,29 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="Q23" s="2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="24" spans="4:17">
       <c r="E24" s="7" t="str">
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -8050,25 +8182,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins deux objectifs.</v>
-      </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.6">
-      <c r="D27" s="65" t="s">
+        <v>4 objectifs ont été déterminées</v>
+      </c>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8083,16 +8215,28 @@
       </c>
     </row>
     <row r="28" spans="4:17">
-      <c r="E28" s="6" t="str">
+      <c r="E28" s="6">
         <f>IF(ISBLANK(F28), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P28" s="12">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -8101,16 +8245,28 @@
       </c>
     </row>
     <row r="29" spans="4:17">
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="7">
         <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
-        <v/>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="P29" s="12">
         <f>P28+$P$27</f>
         <v>2.0833333333333332E-2</v>
@@ -8120,12 +8276,16 @@
       </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="E30" s="6" t="str">
+      <c r="E30" s="6">
         <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
-        <v/>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="23"/>
@@ -8139,11 +8299,13 @@
       </c>
     </row>
     <row r="31" spans="4:17">
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="7">
         <f>IF(ISBLANK(F31), "", MAX($E$28:E30)+1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -8381,7 +8543,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="8" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>Attention, vous devez définir au moins quatre tâches.</v>
+        <v>4 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
         <f t="shared" si="1"/>
@@ -8397,23 +8559,23 @@
     <row r="48" spans="5:16">
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B49" s="62">
+    <row r="49" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8432,7 +8594,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.6">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8452,11 +8614,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8465,11 +8627,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8478,11 +8640,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8491,11 +8653,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8504,11 +8666,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8517,11 +8679,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8530,11 +8692,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8543,11 +8705,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8556,11 +8718,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8569,11 +8731,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8582,11 +8744,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8595,11 +8757,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8608,11 +8770,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8621,11 +8783,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8634,11 +8796,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8647,11 +8809,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8660,11 +8822,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8673,11 +8835,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8686,11 +8848,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8699,11 +8861,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8712,11 +8874,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8725,11 +8887,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8738,11 +8900,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8751,11 +8913,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8764,11 +8926,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8777,11 +8939,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8790,11 +8952,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8803,11 +8965,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8816,11 +8978,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8829,11 +8991,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -8842,11 +9004,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -8855,11 +9017,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -8868,11 +9030,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -8881,11 +9043,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -8894,11 +9056,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -8907,11 +9069,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -8924,22 +9086,22 @@
     <row r="91" spans="2:16">
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="2:16" ht="8.5500000000000007" customHeight="1">
-      <c r="B92" s="62">
+    <row r="92" spans="2:16" ht="8.65" customHeight="1">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18">
-      <c r="B93" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -8954,17 +9116,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.6">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -8973,17 +9135,17 @@
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="E96" s="6" t="str">
+      <c r="E96" s="6">
         <f>IF(ISBLANK(E28),"",E28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F96" s="17" t="str">
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v/>
-      </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+        <v>start reset</v>
+      </c>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -8991,17 +9153,17 @@
       </c>
     </row>
     <row r="97" spans="5:16">
-      <c r="E97" s="7" t="str">
+      <c r="E97" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F97" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+        <v>Afficher stats</v>
+      </c>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9009,17 +9171,17 @@
       </c>
     </row>
     <row r="98" spans="5:16">
-      <c r="E98" s="6" t="str">
+      <c r="E98" s="6">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F98" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+        <v>vitesse et la force (steering)</v>
+      </c>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9027,17 +9189,17 @@
       </c>
     </row>
     <row r="99" spans="5:16">
-      <c r="E99" s="7" t="str">
+      <c r="E99" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F99" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+        <v>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</v>
+      </c>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9053,9 +9215,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9071,9 +9233,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9089,9 +9251,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9107,9 +9269,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9125,9 +9287,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9143,9 +9305,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9161,9 +9323,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9179,9 +9341,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9195,9 +9357,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9211,9 +9373,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9226,9 +9388,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9241,9 +9403,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9256,9 +9418,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9271,36 +9433,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.6">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-    </row>
-    <row r="117" spans="4:11" ht="101.55" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.6">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+    </row>
+    <row r="117" spans="4:11" ht="101.65" customHeight="1">
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9317,72 +9479,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9393,41 +9555,43 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
     <mergeCell ref="F85:J85"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F87:J87"/>
@@ -9444,49 +9608,47 @@
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="G99:I99"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
     <mergeCell ref="F74:J74"/>
     <mergeCell ref="F75:J75"/>
     <mergeCell ref="F76:J76"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9657,9 +9819,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="38"/>
+    <col min="1" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\gitLocal\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599774D-6E25-4B07-9503-37E3373D9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E781EE0-500A-4FE5-9879-C8769E75AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="215">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -856,6 +856,15 @@
   </si>
   <si>
     <t>2 - 3 niveaux d'affich…</t>
+  </si>
+  <si>
+    <t>Passer le target dans le steering behaviors</t>
+  </si>
+  <si>
+    <t>1 - Optimiser les beha…</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
   </si>
 </sst>
 </file>
@@ -1364,17 +1373,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1392,23 +1432,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1424,46 +1452,27 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3485,33 +3494,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3521,49 +3530,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3587,30 +3596,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3625,14 +3634,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3646,14 +3655,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3677,26 +3686,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="53" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="54"/>
+      <c r="K19" s="68"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3711,16 +3720,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="55" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="56"/>
+      <c r="K20" s="64"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3734,16 +3743,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="53" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="68"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3757,16 +3766,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="55" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="56"/>
+      <c r="K22" s="64"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3780,16 +3789,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="53" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="54"/>
+      <c r="K23" s="68"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3803,12 +3812,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3818,25 +3827,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4346,22 +4355,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4400,13 +4409,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4417,13 +4426,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4434,13 +4443,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4451,13 +4460,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4468,13 +4477,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4485,13 +4494,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4502,13 +4511,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4519,13 +4528,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4536,13 +4545,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4553,13 +4562,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4570,11 +4579,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4583,11 +4592,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4596,11 +4605,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4609,11 +4618,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4622,11 +4631,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4635,11 +4644,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4648,11 +4657,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4661,11 +4670,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4674,11 +4683,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4687,11 +4696,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4700,11 +4709,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4713,11 +4722,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4726,11 +4735,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4739,11 +4748,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4752,11 +4761,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4765,11 +4774,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4778,11 +4787,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4791,11 +4800,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4804,11 +4813,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4817,11 +4826,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4830,11 +4839,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4843,11 +4852,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4856,11 +4865,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4869,11 +4878,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4882,11 +4891,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4895,11 +4904,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4913,21 +4922,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4948,11 +4957,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4969,11 +4978,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="59" t="s">
+      <c r="G96" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -4993,11 +5002,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5017,9 +5026,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5039,9 +5048,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5061,11 +5070,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="59" t="s">
+      <c r="G100" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5085,9 +5094,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5107,9 +5116,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5129,9 +5138,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5151,9 +5160,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5173,11 +5182,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="62" t="s">
+      <c r="G105" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5197,9 +5206,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5219,9 +5228,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5239,9 +5248,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5259,9 +5268,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5278,9 +5287,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5297,9 +5306,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5312,9 +5321,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5327,9 +5336,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -5337,26 +5346,26 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -5375,78 +5384,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="60" t="s">
+      <c r="F121" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="63" t="s">
+      <c r="F122" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5457,11 +5466,79 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5478,79 +5555,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5720,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:J57"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -5741,31 +5750,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5775,49 +5784,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72">
+      <c r="F5" s="59">
         <v>44887</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59">
         <v>44894</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5841,30 +5850,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5879,14 +5888,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5900,12 +5909,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5929,28 +5938,28 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
-        <f>IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
+        <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
       </c>
       <c r="Q19" s="2" t="str" cm="1">
@@ -5963,18 +5972,18 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="77"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
-        <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
+        <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
       </c>
       <c r="Q20" s="2" t="str">
@@ -5986,18 +5995,18 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="74" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="75"/>
+      <c r="K21" s="77"/>
       <c r="P21" s="2" t="str">
-        <f>IF(ISBLANK(F21),"", E21&amp; " - " &amp;IF(LEN(F21)&lt;$P$11,F21,LEFT(F21,$P$11) &amp; "…"))</f>
+        <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
       </c>
       <c r="Q21" s="2" t="str">
@@ -6009,18 +6018,18 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="76" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="77"/>
+      <c r="K22" s="75"/>
       <c r="P22" s="2" t="str">
-        <f>IF(ISBLANK(F22),"", E22&amp; " - " &amp;IF(LEN(F22)&lt;$P$11,F22,LEFT(F22,$P$11) &amp; "…"))</f>
+        <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
       </c>
       <c r="Q22" s="2" t="str">
@@ -6032,18 +6041,18 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="74" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="75"/>
+      <c r="K23" s="77"/>
       <c r="P23" s="2" t="str">
-        <f>IF(ISBLANK(F23),"", E23&amp; " - " &amp;IF(LEN(F23)&lt;$P$11,F23,LEFT(F23,$P$11) &amp; "…"))</f>
+        <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
       </c>
       <c r="Q23" s="2" t="str">
@@ -6055,18 +6064,18 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="76" t="s">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="77"/>
+      <c r="K24" s="75"/>
       <c r="P24" s="2" t="str">
-        <f>IF(ISBLANK(F24),"", E24&amp; " - " &amp;IF(LEN(F24)&lt;$P$11,F24,LEFT(F24,$P$11) &amp; "…"))</f>
+        <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
       </c>
       <c r="Q24" s="2" t="str">
@@ -6074,25 +6083,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6191,7 +6200,7 @@
         <v>87</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" ref="P30:P46" si="0">P29+$P$27</f>
+        <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
       </c>
       <c r="Q30" s="13" t="s">
@@ -6222,7 +6231,7 @@
         <v>84</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -6250,7 +6259,7 @@
         <v>84</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
@@ -6278,7 +6287,7 @@
         <v>86</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2499999999999993E-2</v>
       </c>
     </row>
@@ -6306,7 +6315,7 @@
         <v>86</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2916666666666657E-2</v>
       </c>
     </row>
@@ -6334,7 +6343,7 @@
         <v>84</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -6362,7 +6371,7 @@
         <v>84</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
@@ -6390,7 +6399,7 @@
         <v>85</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10416666666666667</v>
       </c>
     </row>
@@ -6418,7 +6427,7 @@
         <v>87</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
@@ -6434,7 +6443,7 @@
       <c r="J39" s="28"/>
       <c r="K39" s="29"/>
       <c r="P39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
@@ -6450,7 +6459,7 @@
       <c r="J40" s="23"/>
       <c r="K40" s="24"/>
       <c r="P40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
@@ -6466,7 +6475,7 @@
       <c r="J41" s="28"/>
       <c r="K41" s="29"/>
       <c r="P41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
@@ -6482,7 +6491,7 @@
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="P42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15624999999999997</v>
       </c>
     </row>
@@ -6498,7 +6507,7 @@
       <c r="J43" s="28"/>
       <c r="K43" s="29"/>
       <c r="P43" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
@@ -6514,7 +6523,7 @@
       <c r="J44" s="23"/>
       <c r="K44" s="24"/>
       <c r="P44" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17708333333333329</v>
       </c>
     </row>
@@ -6530,7 +6539,7 @@
       <c r="J45" s="28"/>
       <c r="K45" s="29"/>
       <c r="P45" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18749999999999994</v>
       </c>
     </row>
@@ -6540,7 +6549,7 @@
         <v>11 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1979166666666666</v>
       </c>
     </row>
@@ -6554,22 +6563,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6608,13 +6617,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6625,13 +6634,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6642,13 +6651,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6659,13 +6668,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6676,13 +6685,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6693,13 +6702,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -6708,13 +6717,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -6723,13 +6732,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -6738,13 +6747,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -6753,11 +6762,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -6766,11 +6775,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6779,11 +6788,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6792,11 +6801,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6805,11 +6814,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6818,11 +6827,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6831,11 +6840,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6844,11 +6853,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6857,11 +6866,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6870,11 +6879,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6883,11 +6892,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6896,11 +6905,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6909,11 +6918,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6922,11 +6931,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6935,11 +6944,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6948,11 +6957,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6961,11 +6970,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6974,11 +6983,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6987,11 +6996,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7000,11 +7009,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7013,11 +7022,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7026,11 +7035,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7039,11 +7048,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7052,11 +7061,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7065,11 +7074,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7078,11 +7087,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7091,11 +7100,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7109,21 +7118,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7144,11 +7153,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7158,17 +7167,19 @@
     </row>
     <row r="96" spans="2:16">
       <c r="E96" s="6">
-        <f>IF(ISBLANK(E28),"",E28)</f>
+        <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(E28),"",E28)</f>
         <v>1</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f>IF(ISBLANK(F28),"",F28)</f>
+        <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="30"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="30">
+        <v>0.5</v>
+      </c>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
         <v>0</v>
@@ -7176,17 +7187,19 @@
     </row>
     <row r="97" spans="5:16">
       <c r="E97" s="7">
-        <f>IF(ISBLANK(E29),"",E29)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F97" s="18" t="str">
-        <f>IF(ISBLANK(F29),"",F29)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="32"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="32">
+        <v>0.5</v>
+      </c>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
         <v>0.1</v>
@@ -7194,17 +7207,19 @@
     </row>
     <row r="98" spans="5:16">
       <c r="E98" s="6">
-        <f>IF(ISBLANK(E30),"",E30)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f>IF(ISBLANK(F30),"",F30)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="30"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="30">
+        <v>0.5</v>
+      </c>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
         <v>0.2</v>
@@ -7212,16 +7227,16 @@
     </row>
     <row r="99" spans="5:16">
       <c r="E99" s="7">
-        <f>IF(ISBLANK(E31),"",E31)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F99" s="18" t="str">
-        <f>IF(ISBLANK(F31),"",F31)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -7230,16 +7245,16 @@
     </row>
     <row r="100" spans="5:16">
       <c r="E100" s="6">
-        <f>IF(ISBLANK(E32),"",E32)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f>IF(ISBLANK(F32),"",F32)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -7248,16 +7263,16 @@
     </row>
     <row r="101" spans="5:16">
       <c r="E101" s="7">
-        <f>IF(ISBLANK(E33),"",E33)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F101" s="18" t="str">
-        <f>IF(ISBLANK(F33),"",F33)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -7266,16 +7281,16 @@
     </row>
     <row r="102" spans="5:16">
       <c r="E102" s="6">
-        <f>IF(ISBLANK(E34),"",E34)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f>IF(ISBLANK(F34),"",F34)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -7284,16 +7299,16 @@
     </row>
     <row r="103" spans="5:16">
       <c r="E103" s="7">
-        <f>IF(ISBLANK(E35),"",E35)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F103" s="18" t="str">
-        <f>IF(ISBLANK(F35),"",F35)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -7302,16 +7317,16 @@
     </row>
     <row r="104" spans="5:16">
       <c r="E104" s="6">
-        <f>IF(ISBLANK(E36),"",E36)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f>IF(ISBLANK(F36),"",F36)</f>
+        <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -7320,16 +7335,16 @@
     </row>
     <row r="105" spans="5:16">
       <c r="E105" s="7">
-        <f>IF(ISBLANK(E37),"",E37)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F105" s="18" t="str">
-        <f>IF(ISBLANK(F37),"",F37)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -7338,16 +7353,16 @@
     </row>
     <row r="106" spans="5:16">
       <c r="E106" s="6">
-        <f>IF(ISBLANK(E38),"",E38)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f>IF(ISBLANK(F38),"",F38)</f>
+        <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -7356,108 +7371,108 @@
     </row>
     <row r="107" spans="5:16">
       <c r="E107" s="7" t="str">
-        <f>IF(ISBLANK(E39),"",E39)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F107" s="18" t="str">
-        <f>IF(ISBLANK(F39),"",F39)</f>
-        <v/>
-      </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
     </row>
     <row r="108" spans="5:16">
       <c r="E108" s="6" t="str">
-        <f>IF(ISBLANK(E40),"",E40)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F108" s="17" t="str">
-        <f>IF(ISBLANK(F40),"",F40)</f>
-        <v/>
-      </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="5:16">
       <c r="E109" s="7" t="str">
-        <f>IF(ISBLANK(E41),"",E41)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F109" s="18" t="str">
-        <f>IF(ISBLANK(F41),"",F41)</f>
-        <v/>
-      </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
     <row r="110" spans="5:16">
       <c r="E110" s="6" t="str">
-        <f>IF(ISBLANK(E42),"",E42)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F110" s="17" t="str">
-        <f>IF(ISBLANK(F42),"",F42)</f>
-        <v/>
-      </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
     <row r="111" spans="5:16">
       <c r="E111" s="7" t="str">
-        <f>IF(ISBLANK(E43),"",E43)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F111" s="18" t="str">
-        <f>IF(ISBLANK(F43),"",F43)</f>
-        <v/>
-      </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
     <row r="112" spans="5:16">
       <c r="E112" s="6" t="str">
-        <f>IF(ISBLANK(E44),"",E44)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F112" s="17" t="str">
-        <f>IF(ISBLANK(F44),"",F44)</f>
-        <v/>
-      </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
     <row r="113" spans="4:11">
       <c r="E113" s="7" t="str">
-        <f>IF(ISBLANK(E45),"",E45)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F113" s="18" t="str">
-        <f>IF(ISBLANK(F45),"",F45)</f>
-        <v/>
-      </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -7465,24 +7480,24 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -7501,72 +7516,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7577,6 +7592,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7593,84 +7686,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7839,8 +7854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -7860,31 +7875,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -7894,49 +7909,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72">
+      <c r="F5" s="59">
         <v>44894</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59">
         <v>44901</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7960,30 +7975,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -7998,14 +8013,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8019,12 +8034,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8048,26 +8063,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Optimiser les beha…</v>
@@ -8082,13 +8097,13 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="76" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="74" t="s">
         <v>167</v>
       </c>
       <c r="K20" s="82"/>
@@ -8105,12 +8120,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="78" t="s">
         <v>167</v>
       </c>
@@ -8128,12 +8143,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="80" t="s">
         <v>171</v>
       </c>
@@ -8151,10 +8166,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="78"/>
       <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
@@ -8170,10 +8185,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="80"/>
       <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
@@ -8182,25 +8197,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8286,10 +8301,18 @@
       <c r="G30" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="H30" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
         <v>3.125E-2</v>
@@ -8307,37 +8330,59 @@
         <v>210</v>
       </c>
       <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="H31" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="P31" s="12">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="6">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="P32" s="12">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="7">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
-        <v/>
-      </c>
-      <c r="F33" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>214</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -8543,7 +8588,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="8" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>4 objectifs ont été déterminées</v>
+        <v>6 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
         <f t="shared" si="1"/>
@@ -8560,22 +8605,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8614,11 +8659,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8627,11 +8672,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8640,11 +8685,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8653,11 +8698,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8666,11 +8711,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8679,11 +8724,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8692,11 +8737,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8705,11 +8750,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8718,11 +8763,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8731,11 +8776,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8744,11 +8789,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8757,11 +8802,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8770,11 +8815,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8783,11 +8828,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8796,11 +8841,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8809,11 +8854,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8822,11 +8867,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8835,11 +8880,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8848,11 +8893,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8861,11 +8906,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8874,11 +8919,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8887,11 +8932,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8900,11 +8945,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8913,11 +8958,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8926,11 +8971,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8939,11 +8984,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8952,11 +8997,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -8965,11 +9010,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -8978,11 +9023,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -8991,11 +9036,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9004,11 +9049,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9017,11 +9062,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9030,11 +9075,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9043,11 +9088,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9056,11 +9101,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9069,11 +9114,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9087,21 +9132,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9122,11 +9167,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9143,9 +9188,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>start reset</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -9161,9 +9206,9 @@
         <f t="shared" si="2"/>
         <v>Afficher stats</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9179,9 +9224,9 @@
         <f t="shared" si="2"/>
         <v>vitesse et la force (steering)</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9197,9 +9242,9 @@
         <f t="shared" si="2"/>
         <v>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9207,17 +9252,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E100" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F100" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+        <v>Passer le target dans le steering behaviors</v>
+      </c>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9225,17 +9270,17 @@
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E101" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F101" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+        <v>Checkbox</v>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9251,9 +9296,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9269,9 +9314,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9287,9 +9332,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9305,9 +9350,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9323,9 +9368,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9341,9 +9386,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9357,9 +9402,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9373,9 +9418,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9388,9 +9433,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9403,9 +9448,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9418,9 +9463,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9433,9 +9478,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -9443,24 +9488,24 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -9479,72 +9524,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9555,43 +9600,47 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F85:J85"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F87:J87"/>
@@ -9608,47 +9657,43 @@
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="G99:I99"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\gitLocal\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0658018\Desktop\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E781EE0-500A-4FE5-9879-C8769E75AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F2C2B-A24F-4E7A-8639-3EB56A99D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="2" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="220">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -865,6 +865,21 @@
   </si>
   <si>
     <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Ajouter next Step</t>
+  </si>
+  <si>
+    <t>Refactor du target steering behavior</t>
+  </si>
+  <si>
+    <t>Les boutons start/stop/next step ont été facile a implémenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le cercle du Wander fut quand même difficile </t>
+  </si>
+  <si>
+    <t>Le cercle du Wander Behavior</t>
   </si>
 </sst>
 </file>
@@ -1373,48 +1388,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1432,11 +1416,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1452,13 +1448,40 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1468,11 +1491,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1490,10 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3473,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F124" sqref="F124:K124"/>
     </sheetView>
   </sheetViews>
@@ -3494,33 +3509,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3530,49 +3545,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3596,30 +3611,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3634,14 +3649,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3655,14 +3670,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3686,26 +3701,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="54"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3720,16 +3735,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="56"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3743,16 +3758,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="54"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3766,16 +3781,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="56"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3789,16 +3804,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="54"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3812,12 +3827,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3827,25 +3842,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4355,22 +4370,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="62"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4409,13 +4424,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4426,13 +4441,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4443,13 +4458,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4460,13 +4475,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4477,13 +4492,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4494,13 +4509,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4511,13 +4526,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4528,13 +4543,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4545,13 +4560,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4562,13 +4577,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4579,11 +4594,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4592,11 +4607,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4605,11 +4620,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4618,11 +4633,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4631,11 +4646,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4644,11 +4659,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4657,11 +4672,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4670,11 +4685,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4683,11 +4698,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4696,11 +4711,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4709,11 +4724,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4722,11 +4737,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4735,11 +4750,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4748,11 +4763,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4761,11 +4776,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4774,11 +4789,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4787,11 +4802,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4800,11 +4815,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4813,11 +4828,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4826,11 +4841,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4839,11 +4854,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4852,11 +4867,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4865,11 +4880,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4878,11 +4893,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4891,11 +4906,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4904,11 +4919,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4922,21 +4937,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="62"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4957,11 +4972,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4978,11 +4993,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5002,11 +5017,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5026,9 +5041,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5048,9 +5063,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5070,11 +5085,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5094,9 +5109,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5116,9 +5131,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5138,9 +5153,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5160,9 +5175,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5182,11 +5197,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5206,9 +5221,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5228,9 +5243,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5248,9 +5263,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5268,9 +5283,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5287,9 +5302,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5306,9 +5321,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5321,9 +5336,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5336,9 +5351,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -5346,26 +5361,26 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="65" t="s">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -5384,78 +5399,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5466,17 +5481,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5493,73 +5564,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5729,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -5750,31 +5765,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5784,49 +5799,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>44887</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>44894</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5850,30 +5865,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5888,14 +5903,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5909,12 +5924,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5938,26 +5953,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -5972,16 +5987,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="77"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -5995,16 +6010,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="75"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6018,16 +6033,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="77"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6041,16 +6056,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="77"/>
+      <c r="K23" s="75"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6064,16 +6079,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="77"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6083,25 +6098,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="1"/>
@@ -6312,7 +6327,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P34" s="12">
         <f t="shared" si="1"/>
@@ -6432,48 +6447,84 @@
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="7">
         <f>IF(ISBLANK(F39), "", MAX($E$28:E38)+1)</f>
-        <v/>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="28">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="P39" s="12">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="6" t="str">
+      <c r="E40" s="6">
         <f>IF(ISBLANK(F40), "", MAX($E$28:E39)+1)</f>
-        <v/>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="P40" s="12">
         <f t="shared" si="1"/>
         <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="7">
         <f>IF(ISBLANK(F41), "", MAX($E$28:E40)+1)</f>
-        <v/>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="P41" s="12">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
@@ -6546,7 +6597,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="8" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>11 objectifs ont été déterminées</v>
+        <v>12 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
         <f t="shared" si="1"/>
@@ -6563,22 +6614,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="62"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6617,13 +6668,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6634,13 +6685,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6651,13 +6702,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6668,13 +6719,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6685,13 +6736,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6702,14 +6753,16 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="35"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="35">
+        <v>1</v>
+      </c>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16">
@@ -6717,14 +6770,16 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="34"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="34">
+        <v>1</v>
+      </c>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:16">
@@ -6732,14 +6787,16 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="35"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="35">
+        <v>1</v>
+      </c>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:16">
@@ -6747,39 +6804,47 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="34"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="34">
+        <v>2</v>
+      </c>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
-        <v/>
-      </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="35">
+        <v>3</v>
+      </c>
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="7">
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
-        <v/>
-      </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6788,11 +6853,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6801,11 +6866,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6814,11 +6879,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6827,11 +6892,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6840,11 +6905,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6853,11 +6918,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6866,11 +6931,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6879,11 +6944,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6892,11 +6957,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6905,11 +6970,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6918,11 +6983,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6931,11 +6996,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -6944,11 +7009,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -6957,11 +7022,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -6970,11 +7035,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -6983,11 +7048,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -6996,11 +7061,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7009,11 +7074,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7022,11 +7087,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7035,11 +7100,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7048,11 +7113,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7061,11 +7126,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7074,11 +7139,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7087,11 +7152,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7100,11 +7165,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7118,21 +7183,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="62"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7153,11 +7218,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7174,13 +7239,15 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="K96" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="31">
+        <v>1</v>
+      </c>
       <c r="P96" s="13">
         <v>0</v>
       </c>
@@ -7194,13 +7261,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="K97" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="33">
+        <v>1</v>
+      </c>
       <c r="P97" s="13">
         <v>0.1</v>
       </c>
@@ -7214,13 +7283,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="K98" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="31">
+        <v>1</v>
+      </c>
       <c r="P98" s="13">
         <v>0.2</v>
       </c>
@@ -7234,11 +7305,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="33"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="32">
+        <v>1</v>
+      </c>
+      <c r="K99" s="33">
+        <v>1</v>
+      </c>
       <c r="P99" s="13">
         <v>0.3</v>
       </c>
@@ -7252,11 +7327,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="31"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="30">
+        <v>0</v>
+      </c>
+      <c r="K100" s="31">
+        <v>0</v>
+      </c>
       <c r="P100" s="13">
         <v>0.4</v>
       </c>
@@ -7270,11 +7349,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="33"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="32">
+        <v>1</v>
+      </c>
+      <c r="K101" s="33">
+        <v>1</v>
+      </c>
       <c r="P101" s="13">
         <v>0.5</v>
       </c>
@@ -7288,11 +7371,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="31"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="30">
+        <v>1</v>
+      </c>
+      <c r="K102" s="31">
+        <v>1</v>
+      </c>
       <c r="P102" s="13">
         <v>0.6</v>
       </c>
@@ -7306,11 +7393,15 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="33"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="32">
+        <v>1</v>
+      </c>
+      <c r="K103" s="33">
+        <v>1</v>
+      </c>
       <c r="P103" s="13">
         <v>0.7</v>
       </c>
@@ -7324,11 +7415,15 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="31"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K104" s="31">
+        <v>0.9</v>
+      </c>
       <c r="P104" s="13">
         <v>0.8</v>
       </c>
@@ -7342,11 +7437,15 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="33"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="32">
+        <v>1</v>
+      </c>
+      <c r="K105" s="33">
+        <v>1</v>
+      </c>
       <c r="P105" s="13">
         <v>0.9</v>
       </c>
@@ -7360,59 +7459,71 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="31"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="30">
+        <v>0</v>
+      </c>
+      <c r="K106" s="31">
+        <v>0</v>
+      </c>
       <c r="P106" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="5:16">
-      <c r="E107" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E107" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F107" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="33"/>
+        <v>Ajouter next Step</v>
+      </c>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="32">
+        <v>1</v>
+      </c>
+      <c r="K107" s="33">
+        <v>1</v>
+      </c>
       <c r="P107" s="13"/>
     </row>
     <row r="108" spans="5:16">
-      <c r="E108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E108" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="F108" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="31"/>
+        <v>Refactor du target steering behavior</v>
+      </c>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="30">
+        <v>1</v>
+      </c>
+      <c r="K108" s="31">
+        <v>1</v>
+      </c>
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="5:16">
-      <c r="E109" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E109" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F109" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+        <v>Le cercle du Wander Behavior</v>
+      </c>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7425,9 +7536,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7440,9 +7551,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7455,9 +7566,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7470,9 +7581,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -7480,24 +7591,24 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="65" t="s">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -7516,72 +7627,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7592,68 +7703,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7670,22 +7735,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7854,8 +7965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -7875,31 +7986,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="71" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -7909,49 +8020,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>44894</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72">
         <v>44901</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -7975,30 +8086,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -8013,14 +8124,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8034,12 +8145,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8063,26 +8174,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="75"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Optimiser les beha…</v>
@@ -8097,16 +8208,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="78"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - 3 niveaux d'affich…</v>
@@ -8120,16 +8231,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="78" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="79"/>
+      <c r="K21" s="80"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Start Reset Button…</v>
@@ -8143,16 +8254,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="80" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="82"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Commentaires et te…</v>
@@ -8166,12 +8277,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8185,37 +8296,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="52" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8605,22 +8716,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="67">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="62"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8659,11 +8770,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8672,11 +8783,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8685,11 +8796,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8698,11 +8809,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8711,11 +8822,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8724,11 +8835,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8737,11 +8848,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8750,11 +8861,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8763,11 +8874,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8776,11 +8887,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="69"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8789,11 +8900,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8802,11 +8913,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8815,11 +8926,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8828,11 +8939,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8841,11 +8952,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8854,11 +8965,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8867,11 +8978,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8880,11 +8991,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -8893,11 +9004,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -8906,11 +9017,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -8919,11 +9030,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -8932,11 +9043,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="69"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -8945,11 +9056,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -8958,11 +9069,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -8971,11 +9082,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -8984,11 +9095,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="69"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -8997,11 +9108,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9010,11 +9121,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="69"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9023,11 +9134,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9036,11 +9147,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="69"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9049,11 +9160,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9062,11 +9173,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="69"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9075,11 +9186,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9088,11 +9199,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="69"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9101,11 +9212,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9114,11 +9225,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="69"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9132,21 +9243,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="67">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
     </row>
     <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="62"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9167,11 +9278,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9188,9 +9299,9 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>start reset</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -9206,9 +9317,9 @@
         <f t="shared" si="2"/>
         <v>Afficher stats</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9224,9 +9335,9 @@
         <f t="shared" si="2"/>
         <v>vitesse et la force (steering)</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9242,9 +9353,9 @@
         <f t="shared" si="2"/>
         <v>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9260,9 +9371,9 @@
         <f t="shared" si="2"/>
         <v>Passer le target dans le steering behaviors</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9278,9 +9389,9 @@
         <f t="shared" si="2"/>
         <v>Checkbox</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9296,9 +9407,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9314,9 +9425,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9332,9 +9443,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9350,9 +9461,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9368,9 +9479,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="61"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9386,9 +9497,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9402,9 +9513,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="61"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9418,9 +9529,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9433,9 +9544,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9448,9 +9559,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9463,9 +9574,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="61"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9478,9 +9589,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -9488,24 +9599,24 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="65" t="s">
+      <c r="E116" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
     </row>
     <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
@@ -9524,72 +9635,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9600,18 +9711,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F79:J79"/>
     <mergeCell ref="F60:J60"/>
     <mergeCell ref="F53:J53"/>
@@ -9628,72 +9793,18 @@
     <mergeCell ref="F76:J76"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0658018\Desktop\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F2C2B-A24F-4E7A-8639-3EB56A99D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A315E92-2FD0-4E84-9F6E-672FA3021501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="2" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15270" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -825,48 +825,9 @@
     <t>3 niveaux afficher le rond, indicaton pertinnentes sur les corps, vitesse et la force (steering), information pertinnetnts reliers au behaviors. (Points random au centre du cercle)</t>
   </si>
   <si>
-    <t>Optimiser les behaviours</t>
-  </si>
-  <si>
-    <t>start reset</t>
-  </si>
-  <si>
-    <t>Start Reset Button</t>
-  </si>
-  <si>
     <t>Commentaires et tests</t>
   </si>
   <si>
-    <t>3 - Start Reset Button…</t>
-  </si>
-  <si>
-    <t>Afficher stats</t>
-  </si>
-  <si>
-    <t>2 - 3 niveaux afficher…</t>
-  </si>
-  <si>
-    <t>3 niveaux d'affichages indicaton pertinnentes sur les corps</t>
-  </si>
-  <si>
-    <t>vitesse et la force (steering)</t>
-  </si>
-  <si>
-    <t>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</t>
-  </si>
-  <si>
-    <t>2 - 3 niveaux d'affich…</t>
-  </si>
-  <si>
-    <t>Passer le target dans le steering behaviors</t>
-  </si>
-  <si>
-    <t>1 - Optimiser les beha…</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
     <t>Ajouter next Step</t>
   </si>
   <si>
@@ -880,6 +841,54 @@
   </si>
   <si>
     <t>Le cercle du Wander Behavior</t>
+  </si>
+  <si>
+    <t>Tous les objectifs ont été atteints, les seuls manquants devaient être fait au prochain sprint de toute façon</t>
+  </si>
+  <si>
+    <t>C'est beaucoup mieux maintenant que le rebase de l'ancienne version de VS Code ne cause plus de problèmes.</t>
+  </si>
+  <si>
+    <t>Beaucoup plus facile de construire sur la base que de construire la base elle-même.</t>
+  </si>
+  <si>
+    <t>Finalisation</t>
+  </si>
+  <si>
+    <t>Ajouter les field of views</t>
+  </si>
+  <si>
+    <t>1 - Finalisation</t>
+  </si>
+  <si>
+    <t>Implémenter les steering behaviors sur des groupes</t>
+  </si>
+  <si>
+    <t>Ajouter des steering behaviors présentés nouvellement</t>
+  </si>
+  <si>
+    <t>2 - Implémenter les st…</t>
+  </si>
+  <si>
+    <t>1 - Ajouter les field …</t>
+  </si>
+  <si>
+    <t>Implémenter interface Seeing</t>
+  </si>
+  <si>
+    <t>3 - Ajouter des steeri…</t>
+  </si>
+  <si>
+    <t>Implémenter steering behavior EntityRepulsion</t>
+  </si>
+  <si>
+    <t>Ajouter des listes dans les steering behaviors</t>
+  </si>
+  <si>
+    <t>Mettre de l'autodoc partout</t>
+  </si>
+  <si>
+    <t>4 - Commentaires et te…</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1205,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1388,17 +1397,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1416,23 +1456,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1448,40 +1476,13 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1491,7 +1492,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1511,11 +1516,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1917,7 +1930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>237902</xdr:colOff>
+      <xdr:colOff>241077</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
@@ -1980,7 +1993,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>249695</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>140607</xdr:rowOff>
+      <xdr:rowOff>143782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2105,7 +2118,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>244252</xdr:colOff>
+      <xdr:colOff>237902</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
@@ -2168,7 +2181,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>249695</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:rowOff>140607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2349,7 +2362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2651,17 +2664,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.7109375" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.28515625" style="38"/>
-    <col min="7" max="7" width="9.28515625" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.7265625" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.26953125" style="38"/>
+    <col min="7" max="7" width="9.26953125" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.26953125" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.28515625" style="38"/>
+    <col min="15" max="16384" width="9.26953125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2729,7 +2742,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3488,54 +3501,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418DB800-6EF5-4671-BB1F-CF858B9A0F51}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124:K124"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122:K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3545,49 +3558,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3610,31 +3623,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3649,14 +3662,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3670,14 +3683,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3692,7 +3705,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3701,26 +3714,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="53" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="54"/>
+      <c r="K19" s="68"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3735,16 +3748,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="55" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="56"/>
+      <c r="K20" s="64"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3758,16 +3771,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="53" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="68"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3781,16 +3794,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="55" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="56"/>
+      <c r="K22" s="64"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3804,16 +3817,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="53" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="54"/>
+      <c r="K23" s="68"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3827,12 +3840,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3842,25 +3855,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4370,22 +4383,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4404,7 +4417,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4424,13 +4437,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4441,13 +4454,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4458,13 +4471,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4475,13 +4488,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4492,13 +4505,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4509,13 +4522,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4526,13 +4539,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4543,13 +4556,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4560,13 +4573,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4577,13 +4590,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4594,11 +4607,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4607,11 +4620,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4620,11 +4633,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4633,11 +4646,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4646,11 +4659,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4659,11 +4672,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4672,11 +4685,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4685,11 +4698,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4698,11 +4711,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4711,11 +4724,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4724,11 +4737,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4737,11 +4750,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4750,11 +4763,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4763,11 +4776,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4776,11 +4789,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4789,11 +4802,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4802,11 +4815,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4815,11 +4828,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4828,11 +4841,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4841,11 +4854,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4854,11 +4867,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4867,11 +4880,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4880,11 +4893,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4893,11 +4906,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4906,11 +4919,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4919,11 +4932,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4937,21 +4950,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4966,17 +4979,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -4993,11 +5006,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="59" t="s">
+      <c r="G96" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5017,11 +5030,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5041,9 +5054,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5063,9 +5076,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5085,11 +5098,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="59" t="s">
+      <c r="G100" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5109,9 +5122,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5131,9 +5144,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5153,9 +5166,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5175,9 +5188,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5197,11 +5210,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="62" t="s">
+      <c r="G105" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5221,9 +5234,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5243,9 +5256,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5263,9 +5276,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5283,9 +5296,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5302,9 +5315,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5321,9 +5334,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5336,9 +5349,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5351,38 +5364,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5399,78 +5412,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="60" t="s">
+      <c r="F121" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="63" t="s">
+      <c r="F122" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5481,11 +5494,79 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5502,79 +5583,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5744,52 +5757,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5799,49 +5812,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72">
+      <c r="F5" s="59">
         <v>44887</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72">
-        <v>44894</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59">
+        <v>44897</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5864,31 +5877,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5903,14 +5916,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5924,12 +5937,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5944,7 +5957,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5953,26 +5966,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -5987,16 +6000,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="77"/>
+      <c r="K20" s="75"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -6010,16 +6023,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="74" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="75"/>
+      <c r="K21" s="77"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6033,16 +6046,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="76" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="77"/>
+      <c r="K22" s="75"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6056,16 +6069,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="74" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="75"/>
+      <c r="K23" s="77"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6079,16 +6092,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="76" t="s">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="77"/>
+      <c r="K24" s="75"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6098,25 +6111,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>181</v>
@@ -6480,7 +6493,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>176</v>
@@ -6508,7 +6521,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>176</v>
@@ -6614,22 +6627,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6648,7 +6661,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6668,13 +6681,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6685,13 +6698,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6702,13 +6715,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6719,13 +6732,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6736,13 +6749,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6753,13 +6766,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35">
         <v>1</v>
       </c>
@@ -6770,13 +6783,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34">
         <v>1</v>
       </c>
@@ -6787,13 +6800,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
@@ -6804,13 +6817,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34">
         <v>2</v>
       </c>
@@ -6821,13 +6834,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -6838,13 +6851,13 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v>11</v>
       </c>
-      <c r="F63" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6853,11 +6866,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6866,11 +6879,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6879,11 +6892,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6892,11 +6905,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6905,11 +6918,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6918,11 +6931,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6931,11 +6944,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6944,11 +6957,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6957,11 +6970,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6970,11 +6983,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6983,11 +6996,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -6996,11 +7009,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -7009,11 +7022,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -7022,11 +7035,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -7035,11 +7048,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -7048,11 +7061,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -7061,11 +7074,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7074,11 +7087,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7087,11 +7100,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7100,11 +7113,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7113,11 +7126,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7126,11 +7139,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7139,11 +7152,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7152,11 +7165,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7165,11 +7178,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7183,21 +7196,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7212,17 +7225,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7239,9 +7252,9 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -7261,9 +7274,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32">
         <v>1</v>
       </c>
@@ -7283,9 +7296,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -7305,9 +7318,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -7327,14 +7340,14 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" s="13">
         <v>0.4</v>
@@ -7349,9 +7362,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -7371,9 +7384,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -7393,9 +7406,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -7415,14 +7428,14 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K104" s="31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P104" s="13">
         <v>0.8</v>
@@ -7437,9 +7450,9 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -7459,9 +7472,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30">
         <v>0</v>
       </c>
@@ -7481,9 +7494,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter next Step</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -7501,9 +7514,9 @@
         <f t="shared" si="2"/>
         <v>Refactor du target steering behavior</v>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -7521,9 +7534,9 @@
         <f t="shared" si="2"/>
         <v>Le cercle du Wander Behavior</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7536,9 +7549,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7551,9 +7564,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7566,9 +7579,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7581,36 +7594,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="E117" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7623,86 +7638,168 @@
       <c r="K120" s="9"/>
     </row>
     <row r="121" spans="4:11">
-      <c r="E121" s="6" t="str">
+      <c r="E121" s="6">
         <f>IF(ISBLANK(F121), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="F121" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
-      <c r="E122" s="7" t="str">
+      <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
-        <v/>
-      </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="F122" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
         <f>IF(COUNTA(F121:K126)&lt;2, "Attention, vous devez définir au moins deux éléments descriptifs.", COUNTA(F121:K126)&amp;IF(COUNTA(F121:K126)&gt;1," éléments ont été exprimés"," élément a été exprimé"))</f>
-        <v>Attention, vous devez définir au moins deux éléments descriptifs.</v>
+        <v>2 éléments ont été exprimés</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7719,84 +7816,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7965,52 +7984,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="71" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="60" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -8020,49 +8039,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="72">
-        <v>44894</v>
-      </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="F5" s="59">
+        <v>44897</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="72">
-        <v>44901</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59">
+        <v>44911</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="62"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -8085,38 +8104,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="57" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="F13" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
-        <v>1 - Développement</v>
+        <v>1 - Finalisation</v>
       </c>
       <c r="Q13" s="2" t="str" cm="1">
         <f t="array" ref="Q13:Q15">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$13:$P$15,NOT(ISBLANK($P$13:$P$15))))</f>
-        <v>1 - Développement</v>
+        <v>1 - Finalisation</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -8124,14 +8143,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8145,12 +8164,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8165,7 +8184,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -8174,33 +8193,33 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="58"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="75"/>
+      <c r="F19" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="77"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
-        <v>1 - Optimiser les beha…</v>
+        <v>1 - Ajouter les field …</v>
       </c>
       <c r="Q19" s="2" t="str" cm="1">
         <f t="array" ref="Q19:Q23">_xlfn.UNIQUE(_xlfn._xlws.FILTER($P$19:$P$24,NOT(ISBLANK($P$19:$P$24))))</f>
-        <v>1 - Optimiser les beha…</v>
+        <v>1 - Ajouter les field …</v>
       </c>
     </row>
     <row r="20" spans="4:17">
@@ -8208,22 +8227,22 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="78"/>
+      <c r="F20" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="82"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
-        <v>2 - 3 niveaux d'affich…</v>
+        <v>2 - Implémenter les st…</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <v>2 - 3 niveaux d'affich…</v>
+        <v>2 - Implémenter les st…</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -8231,22 +8250,22 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="80"/>
+      <c r="F21" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="79"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3 - Start Reset Button…</v>
+        <v>3 - Ajouter des steeri…</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <v>3 - Start Reset Button…</v>
+        <v>3 - Ajouter des steeri…</v>
       </c>
     </row>
     <row r="22" spans="4:17">
@@ -8254,16 +8273,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="81" t="s">
+      <c r="F22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="82"/>
+      <c r="K22" s="81"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Commentaires et te…</v>
@@ -8277,12 +8296,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8296,37 +8315,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="73" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="57" t="s">
+      <c r="K25" s="73"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8346,19 +8365,17 @@
         <v>1</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="J28" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>87</v>
@@ -8372,26 +8389,24 @@
     </row>
     <row r="29" spans="4:17">
       <c r="E29" s="7">
-        <f>IF(ISBLANK(F29), "", MAX($E$28:E28)+1)</f>
+        <f>IF(ISBLANK(#REF!), "", MAX($E$28:E28)+1)</f>
         <v>2</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>206</v>
+      <c r="F29" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="27" t="s">
-        <v>130</v>
-      </c>
       <c r="J29" s="28">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" s="12">
         <f>P28+$P$27</f>
@@ -8403,26 +8418,24 @@
     </row>
     <row r="30" spans="4:17">
       <c r="E30" s="6">
-        <f>IF(ISBLANK(F30), "", MAX($E$28:E29)+1)</f>
+        <f>IF(ISBLANK(F29), "", MAX($E$28:E29)+1)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>209</v>
+      <c r="F30" s="83" t="s">
+        <v>220</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>127</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H30" s="22"/>
       <c r="I30" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J30" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P30" s="12">
         <f t="shared" ref="P30:P46" si="1">P29+$P$27</f>
@@ -8438,20 +8451,20 @@
         <v>4</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27" t="s">
-        <v>127</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
         <v>130</v>
       </c>
       <c r="J31" s="28">
-        <v>4.1666666666666664E-2</v>
+        <v>6.2499999999999993E-2</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P31" s="12">
         <f t="shared" si="1"/>
@@ -8459,41 +8472,27 @@
       </c>
     </row>
     <row r="32" spans="4:17">
-      <c r="E32" s="6">
+      <c r="E32" s="6" t="str">
         <f>IF(ISBLANK(F32), "", MAX($E$28:E31)+1)</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="23">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>85</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
       <c r="P32" s="12">
         <f t="shared" si="1"/>
         <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="7">
+      <c r="E33" s="7" t="str">
         <f>IF(ISBLANK(F33), "", MAX($E$28:E32)+1)</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>214</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F33" s="25"/>
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -8699,7 +8698,7 @@
     <row r="46" spans="5:16">
       <c r="K46" s="8" t="str">
         <f>IF(COUNTA(F28:F39)&lt;4, "Attention, vous devez définir au moins quatre tâches.", COUNTA(F28:F39)&amp;IF(COUNTA(F28:F39)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
-        <v>6 objectifs ont été déterminées</v>
+        <v>4 objectifs ont été déterminées</v>
       </c>
       <c r="P46" s="12">
         <f t="shared" si="1"/>
@@ -8716,22 +8715,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="67">
+      <c r="B49" s="62">
         <v>2</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="67"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="62"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8750,7 +8749,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8770,11 +8769,11 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v/>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="70"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="34"/>
       <c r="P53" s="16"/>
     </row>
@@ -8783,11 +8782,11 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v/>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="69"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="35"/>
       <c r="P54" s="12"/>
     </row>
@@ -8796,11 +8795,11 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v/>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="70"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="34"/>
       <c r="P55" s="12"/>
     </row>
@@ -8809,11 +8808,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8822,11 +8821,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="70"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8835,11 +8834,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="69"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8848,11 +8847,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="70"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8861,11 +8860,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="69"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8874,11 +8873,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="70"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8887,11 +8886,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="69"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8900,11 +8899,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="70"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8913,11 +8912,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="69"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8926,11 +8925,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="70"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8939,11 +8938,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8952,11 +8951,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="70"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8965,11 +8964,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8978,11 +8977,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="70"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8991,11 +8990,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -9004,11 +9003,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="70"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -9017,11 +9016,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="69"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -9030,11 +9029,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -9043,11 +9042,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="69"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -9056,11 +9055,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -9069,11 +9068,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -9082,11 +9081,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -9095,11 +9094,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="69"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -9108,11 +9107,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="70"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9121,11 +9120,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="69"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9134,11 +9133,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="70"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9147,11 +9146,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="69"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9160,11 +9159,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="70"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="57"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9173,11 +9172,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="69"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9186,11 +9185,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="70"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9199,11 +9198,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="69"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="54"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9212,11 +9211,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="70"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9225,11 +9224,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="69"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9243,21 +9242,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="67">
+      <c r="B92" s="62">
         <v>3</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="67"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="62"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9272,17 +9271,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9297,11 +9296,11 @@
       </c>
       <c r="F96" s="17" t="str">
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
-        <v>start reset</v>
-      </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+        <v>Implémenter interface Seeing</v>
+      </c>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="30"/>
       <c r="K96" s="31"/>
       <c r="P96" s="13">
@@ -9313,13 +9312,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F97" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Afficher stats</v>
-      </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
+      <c r="F97" s="18" t="e">
+        <f>IF(ISBLANK(#REF!),"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9332,12 +9331,12 @@
         <v>3</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>vitesse et la force (steering)</v>
-      </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61"/>
+        <f>IF(ISBLANK(F29),"",F29)</f>
+        <v>Implémenter steering behavior EntityRepulsion</v>
+      </c>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9351,11 +9350,11 @@
       </c>
       <c r="F99" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>Information pertinents reliers au behaviors. (Points random au centre du cercle, direction au centre)</v>
-      </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
+        <v>Mettre de l'autodoc partout</v>
+      </c>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="69"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9363,17 +9362,17 @@
       </c>
     </row>
     <row r="100" spans="5:16">
-      <c r="E100" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+      <c r="E100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="F100" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Passer le target dans le steering behaviors</v>
-      </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61"/>
+        <v/>
+      </c>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9381,17 +9380,17 @@
       </c>
     </row>
     <row r="101" spans="5:16">
-      <c r="E101" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+      <c r="E101" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="F101" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>Checkbox</v>
-      </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
+        <v/>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9407,9 +9406,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9425,9 +9424,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="69"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9443,9 +9442,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9461,9 +9460,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9479,9 +9478,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9497,9 +9496,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9513,9 +9512,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9529,9 +9528,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9544,9 +9543,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9559,9 +9558,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="69"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9574,9 +9573,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9589,36 +9588,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="57" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9635,72 +9634,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9711,43 +9710,47 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F85:J85"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F87:J87"/>
@@ -9764,47 +9767,43 @@
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="G99:I99"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9892,7 +9891,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Élément rétrospectif" prompt="Veuillez exprimer un élément clé issu de vos réflexion sur le déroulement de ce sprint, notamment, une façon d’améliorer la qualité ainsi que l’efficacité._x000a__x000a_Soyez concis et précis." sqref="F121:K126" xr:uid="{F547AD08-33E5-42C5-8819-7CC059DC4D23}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commentaire général sur la tâche" prompt="Veuillez saisir un très court texte représentant votre état d'esprit lié à cette tâche. Soyez court et concis." sqref="G96:I113" xr:uid="{E2B79DAD-2183-4AAD-987A-FE85050C7415}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Conclusion de l'examination" prompt="Veuillez faire un résumé des conclusions que l'examination du travail a permi de réaliser. _x000a__x000a_Vous pouvez utiliser ALT-ENTER pour entrer un saut de ligne dans une cellule multiligne." sqref="E117:K117" xr:uid="{046D998A-33FC-4E5F-B8AB-5D98747CCC33}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F28:F45" xr:uid="{606D4B5A-E294-480B-802F-AC0EEB8E77DB}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Membres" prompt="Sélectionnez les membres de l'équipe qui travailleront en binôme pour réaliser cette tâche." sqref="H28:I45" xr:uid="{306E7E4D-1998-4B85-972A-E30504978E93}">
       <formula1>PrenomEtudiants</formula1>
     </dataValidation>
@@ -9920,6 +9918,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimation du temps" prompt="Veuillez saisir une estimation réaliste du temps requis à la réalisation de cette tâche." sqref="J28:J45" xr:uid="{ED7DFDCD-70EB-459A-A2AB-DB6BEEFE2074}">
       <formula1>$P$28:$P$47</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Définition d'une tâche" prompt="Veuillez définir une tâche importante pour ce sprint. Soyez précis et concis." sqref="F31:F45 F28:F29" xr:uid="{606D4B5A-E294-480B-802F-AC0EEB8E77DB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9973,11 +9972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88741D-3A64-4935-98BF-84A80906FBB5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="38"/>
+    <col min="1" max="16384" width="9.26953125" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0658018\Desktop\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A315E92-2FD0-4E84-9F6E-672FA3021501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B5389-00AA-49CE-8289-F99DD19B798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15270" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="227">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -889,6 +889,18 @@
   </si>
   <si>
     <t>4 - Commentaires et te…</t>
+  </si>
+  <si>
+    <t>Des yeux pis un cerveau a place</t>
+  </si>
+  <si>
+    <t>Implantation des scénarios ( follow mouse, follow leader, seek, default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio buttons pour les forces implantées </t>
+  </si>
+  <si>
+    <t>toggle buttons implantés ( pour l'apparition des vecteurs de force, vitesse et F-o-V</t>
   </si>
 </sst>
 </file>
@@ -1385,6 +1397,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1397,48 +1413,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1456,11 +1441,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1476,13 +1473,40 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1492,11 +1516,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1516,19 +1536,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2362,7 +2374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2664,17 +2676,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.7265625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.26953125" style="38"/>
-    <col min="7" max="7" width="9.26953125" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.26953125" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.7109375" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" style="38"/>
+    <col min="7" max="7" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="38"/>
+    <col min="15" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2742,7 +2754,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="15">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -2912,7 +2924,7 @@
       <c r="B19" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="38" t="s">
@@ -2927,7 +2939,7 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="G20" s="38" t="s">
         <v>35</v>
       </c>
@@ -2940,7 +2952,7 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="G21" s="38" t="s">
         <v>37</v>
       </c>
@@ -2953,7 +2965,7 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="C22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="G22" s="38" t="s">
         <v>39</v>
       </c>
@@ -2966,7 +2978,7 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="G23" s="38" t="s">
         <v>41</v>
       </c>
@@ -2979,7 +2991,7 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="C24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="G24" s="38" t="s">
         <v>43</v>
       </c>
@@ -2992,7 +3004,7 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="G25" s="38" t="s">
         <v>45</v>
       </c>
@@ -3005,7 +3017,7 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="C26" s="50"/>
+      <c r="C26" s="51"/>
       <c r="G26" s="38" t="s">
         <v>47</v>
       </c>
@@ -3018,7 +3030,7 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="G27" s="38" t="s">
         <v>49</v>
       </c>
@@ -3032,7 +3044,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="41"/>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="G28" s="38" t="s">
         <v>50</v>
       </c>
@@ -3505,50 +3517,50 @@
       <selection activeCell="F122" sqref="F122:K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3558,49 +3570,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3623,31 +3635,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3662,14 +3674,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3683,14 +3695,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3705,7 +3717,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3714,26 +3726,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="67" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="55"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3748,16 +3760,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="63" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="57"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3771,16 +3783,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="67" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="55"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3794,16 +3806,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="57"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3817,16 +3829,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="67" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="55"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3840,12 +3852,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3855,25 +3867,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="53"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4383,22 +4395,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4417,7 +4429,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4437,13 +4449,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4454,13 +4466,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4471,13 +4483,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4488,13 +4500,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4505,13 +4517,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4522,13 +4534,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4539,13 +4551,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4556,13 +4568,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4573,13 +4585,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4590,13 +4602,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4607,11 +4619,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4620,11 +4632,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4633,11 +4645,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4646,11 +4658,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4659,11 +4671,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4672,11 +4684,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4685,11 +4697,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4698,11 +4710,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4711,11 +4723,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4724,11 +4736,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4737,11 +4749,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4750,11 +4762,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4763,11 +4775,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4776,11 +4788,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4789,11 +4801,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4802,11 +4814,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4815,11 +4827,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4828,11 +4840,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4841,11 +4853,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4854,11 +4866,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4867,11 +4879,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4880,11 +4892,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4893,11 +4905,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4906,11 +4918,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4919,11 +4931,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4932,11 +4944,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4950,21 +4962,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4979,17 +4991,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -5006,11 +5018,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5030,11 +5042,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5054,9 +5066,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5076,9 +5088,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5098,11 +5110,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5122,9 +5134,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5144,9 +5156,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5166,9 +5178,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5188,9 +5200,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5210,11 +5222,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5234,9 +5246,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5256,9 +5268,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5276,9 +5288,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5296,9 +5308,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5315,9 +5327,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5334,9 +5346,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5349,9 +5361,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5364,38 +5376,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="50" t="s">
+      <c r="E117" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5412,78 +5424,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5494,17 +5506,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5521,73 +5589,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5757,52 +5769,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFE6A0-F04B-4325-BD6E-A48B06D94CE0}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5812,49 +5824,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="73">
         <v>44887</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73">
         <v>44897</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5877,31 +5889,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5916,14 +5928,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5937,12 +5949,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5957,7 +5969,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5966,26 +5978,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="76"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -6000,16 +6012,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="75"/>
+      <c r="K20" s="78"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -6023,16 +6035,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="76" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="76"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6046,16 +6058,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="74" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="78"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6069,16 +6081,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="76" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="77"/>
+      <c r="K23" s="76"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6092,16 +6104,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="74" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="78"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6111,25 +6123,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="53"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6627,22 +6639,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6661,7 +6673,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6681,13 +6693,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6698,13 +6710,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6715,13 +6727,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6732,13 +6744,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6749,13 +6761,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6766,13 +6778,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="35">
         <v>1</v>
       </c>
@@ -6783,13 +6795,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="34">
         <v>1</v>
       </c>
@@ -6800,13 +6812,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
@@ -6817,13 +6829,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
       <c r="K61" s="34">
         <v>2</v>
       </c>
@@ -6834,13 +6846,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -6851,13 +6863,13 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v>11</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6866,11 +6878,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6879,11 +6891,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6892,11 +6904,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6905,11 +6917,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6918,11 +6930,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6931,11 +6943,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6944,11 +6956,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6957,11 +6969,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6970,11 +6982,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6983,11 +6995,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -6996,11 +7008,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -7009,11 +7021,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -7022,11 +7034,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -7035,11 +7047,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -7048,11 +7060,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -7061,11 +7073,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -7074,11 +7086,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7087,11 +7099,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7100,11 +7112,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7113,11 +7125,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7126,11 +7138,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7139,11 +7151,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7152,11 +7164,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7165,11 +7177,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7178,11 +7190,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7196,21 +7208,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7225,17 +7237,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7252,9 +7264,9 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -7274,9 +7286,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32">
         <v>1</v>
       </c>
@@ -7296,9 +7308,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -7318,9 +7330,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -7340,9 +7352,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30">
         <v>1</v>
       </c>
@@ -7362,9 +7374,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -7384,9 +7396,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -7406,9 +7418,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -7428,9 +7440,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -7450,9 +7462,9 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -7472,9 +7484,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30">
         <v>0</v>
       </c>
@@ -7494,9 +7506,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter next Step</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -7514,9 +7526,9 @@
         <f t="shared" si="2"/>
         <v>Refactor du target steering behavior</v>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -7534,9 +7546,9 @@
         <f t="shared" si="2"/>
         <v>Le cercle du Wander Behavior</v>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7549,9 +7561,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7564,9 +7576,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7579,9 +7591,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7594,38 +7606,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="71" t="s">
+      <c r="E117" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7642,76 +7654,76 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>15</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7722,68 +7734,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7800,22 +7766,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7984,52 +7996,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="60" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -8039,49 +8051,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="59">
+      <c r="F5" s="73">
         <v>44897</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73">
         <v>44911</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="62">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -8104,31 +8116,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="65" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Finalisation</v>
@@ -8143,14 +8155,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8164,12 +8176,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8184,7 +8196,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -8193,26 +8205,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="76" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="76"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les field …</v>
@@ -8227,16 +8239,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="79"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - Implémenter les st…</v>
@@ -8250,16 +8262,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="78" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="K21" s="79"/>
+      <c r="K21" s="81"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Ajouter des steeri…</v>
@@ -8273,16 +8285,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="80" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="83"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Commentaires et te…</v>
@@ -8296,12 +8308,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8315,37 +8327,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="73" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="73"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="65" t="s">
+      <c r="K25" s="53"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="66"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8421,7 +8433,7 @@
         <f>IF(ISBLANK(F29), "", MAX($E$28:E29)+1)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="49" t="s">
         <v>220</v>
       </c>
       <c r="G30" s="21" t="s">
@@ -8715,22 +8727,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="62">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="62"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8749,7 +8761,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8765,42 +8777,54 @@
       <c r="P52" s="12"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="E53" s="6" t="str">
+      <c r="E53" s="6">
         <f>IF(ISBLANK(F53), "", 1)</f>
-        <v/>
-      </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="34">
+        <v>1</v>
+      </c>
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
-        <v/>
-      </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="35">
+        <v>1</v>
+      </c>
       <c r="P54" s="12"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
-        <v/>
-      </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="34">
+        <v>1</v>
+      </c>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:16">
@@ -8808,11 +8832,11 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v/>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35"/>
       <c r="P56" s="12"/>
     </row>
@@ -8821,11 +8845,11 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v/>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
@@ -8834,11 +8858,11 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v/>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8847,11 +8871,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8860,11 +8884,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8873,11 +8897,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8886,11 +8910,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8899,11 +8923,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8912,11 +8936,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8925,11 +8949,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8938,11 +8962,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8951,11 +8975,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8964,11 +8988,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -8977,11 +9001,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -8990,11 +9014,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -9003,11 +9027,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -9016,11 +9040,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -9029,11 +9053,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -9042,11 +9066,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -9055,11 +9079,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -9068,11 +9092,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -9081,11 +9105,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -9094,11 +9118,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -9107,11 +9131,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9120,11 +9144,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9133,11 +9157,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="57"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9146,11 +9170,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9159,11 +9183,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="57"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9172,11 +9196,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9185,11 +9209,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9198,11 +9222,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9211,11 +9235,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9224,11 +9248,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9242,21 +9266,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="62">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9271,17 +9295,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9298,11 +9322,17 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Implémenter interface Seeing</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="31"/>
+      <c r="G96" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K96" s="31">
+        <v>0.9</v>
+      </c>
       <c r="P96" s="13">
         <v>0</v>
       </c>
@@ -9316,9 +9346,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="69"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9334,9 +9364,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>Implémenter steering behavior EntityRepulsion</v>
       </c>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="72"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9352,9 +9382,9 @@
         <f t="shared" si="2"/>
         <v>Mettre de l'autodoc partout</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9370,9 +9400,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="72"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9388,9 +9418,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="69"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9406,9 +9436,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="72"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9424,9 +9454,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="69"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9442,9 +9472,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="72"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9460,9 +9490,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="69"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9478,9 +9508,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="72"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9496,9 +9526,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="69"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9512,9 +9542,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9528,9 +9558,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="69"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9543,9 +9573,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="72"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9558,9 +9588,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9573,9 +9603,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="72"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9588,36 +9618,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="65" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9634,72 +9664,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9710,18 +9740,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F79:J79"/>
     <mergeCell ref="F60:J60"/>
     <mergeCell ref="F53:J53"/>
@@ -9738,72 +9822,18 @@
     <mergeCell ref="F76:J76"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -9974,9 +10004,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.26953125" style="38"/>
+    <col min="1" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0658018\Desktop\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B5389-00AA-49CE-8289-F99DD19B798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D94078-90A3-4D9C-947E-72666C6054D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -901,6 +901,15 @@
   </si>
   <si>
     <t>toggle buttons implantés ( pour l'apparition des vecteurs de force, vitesse et F-o-V</t>
+  </si>
+  <si>
+    <t>Quelques problématiques concernant l'affichage des fov, mais ça a été réglé</t>
+  </si>
+  <si>
+    <t>Les objectifs qui avaient été établis ont été atteints</t>
+  </si>
+  <si>
+    <t>Nécessité de voir avec le client ce à quoi il s'attend pour l'interaction avec le clic sur une cible et l'affichage d'information</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1413,17 +1422,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1441,23 +1481,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1473,40 +1501,13 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1516,7 +1517,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1538,9 +1543,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2374,7 +2379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2676,17 +2681,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.7109375" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.28515625" style="38"/>
-    <col min="7" max="7" width="9.28515625" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.7265625" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.26953125" style="38"/>
+    <col min="7" max="7" width="9.26953125" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.26953125" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.28515625" style="38"/>
+    <col min="15" max="16384" width="9.26953125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2754,7 +2759,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3517,50 +3522,50 @@
       <selection activeCell="F122" sqref="F122:K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3570,49 +3575,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3635,31 +3640,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3674,14 +3679,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3695,14 +3700,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3717,7 +3722,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3726,26 +3731,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="54" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="69"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3760,16 +3765,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="56" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="57"/>
+      <c r="K20" s="65"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3783,16 +3788,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="54" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="69"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3806,16 +3811,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="57"/>
+      <c r="K22" s="65"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3829,16 +3834,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="54" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="69"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3852,12 +3857,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3867,25 +3872,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4395,22 +4400,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4429,7 +4434,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4449,13 +4454,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4466,13 +4471,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4483,13 +4488,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4500,13 +4505,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4517,13 +4522,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4534,13 +4539,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4551,13 +4556,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4568,13 +4573,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4585,13 +4590,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4602,13 +4607,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4619,11 +4624,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4632,11 +4637,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4645,11 +4650,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4658,11 +4663,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4671,11 +4676,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4684,11 +4689,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4697,11 +4702,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4710,11 +4715,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4723,11 +4728,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4736,11 +4741,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4749,11 +4754,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4762,11 +4767,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4775,11 +4780,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4788,11 +4793,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4801,11 +4806,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4814,11 +4819,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4827,11 +4832,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4840,11 +4845,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4853,11 +4858,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4866,11 +4871,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4879,11 +4884,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4892,11 +4897,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4905,11 +4910,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4918,11 +4923,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4931,11 +4936,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4944,11 +4949,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4962,21 +4967,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -4991,17 +4996,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -5018,11 +5023,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5042,11 +5047,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="63" t="s">
+      <c r="G97" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5066,9 +5071,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5088,9 +5093,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5110,11 +5115,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="60" t="s">
+      <c r="G100" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5134,9 +5139,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5156,9 +5161,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5178,9 +5183,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5200,9 +5205,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5222,11 +5227,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5246,9 +5251,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5268,9 +5273,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5288,9 +5293,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5308,9 +5313,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5327,9 +5332,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5346,9 +5351,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5361,9 +5366,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5376,38 +5381,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5424,78 +5429,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="61" t="s">
+      <c r="F121" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="64" t="s">
+      <c r="F122" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="61" t="s">
+      <c r="F123" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5506,11 +5511,79 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5527,79 +5600,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5773,48 +5778,48 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5824,49 +5829,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73">
+      <c r="F5" s="60">
         <v>44887</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60">
         <v>44897</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5889,31 +5894,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5928,14 +5933,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5949,12 +5954,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5969,7 +5974,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5978,26 +5983,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="75" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="76"/>
+      <c r="K19" s="78"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -6012,16 +6017,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="76"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -6035,16 +6040,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="75" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="76"/>
+      <c r="K21" s="78"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6058,16 +6063,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="78"/>
+      <c r="K22" s="76"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6081,16 +6086,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="75" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="76"/>
+      <c r="K23" s="78"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6104,16 +6109,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="77" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="78"/>
+      <c r="K24" s="76"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6123,25 +6128,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6639,22 +6644,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6673,7 +6678,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6693,13 +6698,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6710,13 +6715,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6727,13 +6732,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6744,13 +6749,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6761,13 +6766,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6778,13 +6783,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35">
         <v>1</v>
       </c>
@@ -6795,13 +6800,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34">
         <v>1</v>
       </c>
@@ -6812,13 +6817,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
@@ -6829,13 +6834,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34">
         <v>2</v>
       </c>
@@ -6846,13 +6851,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -6863,13 +6868,13 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v>11</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6878,11 +6883,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6891,11 +6896,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6904,11 +6909,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6917,11 +6922,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6930,11 +6935,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6943,11 +6948,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6956,11 +6961,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6969,11 +6974,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6982,11 +6987,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -6995,11 +7000,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -7008,11 +7013,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -7021,11 +7026,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -7034,11 +7039,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -7047,11 +7052,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -7060,11 +7065,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -7073,11 +7078,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -7086,11 +7091,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7099,11 +7104,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7112,11 +7117,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7125,11 +7130,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7138,11 +7143,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7151,11 +7156,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7164,11 +7169,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7177,11 +7182,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7190,11 +7195,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7208,21 +7213,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7237,17 +7242,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7264,9 +7269,9 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="60"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -7286,9 +7291,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32">
         <v>1</v>
       </c>
@@ -7308,9 +7313,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -7330,9 +7335,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -7352,9 +7357,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30">
         <v>1</v>
       </c>
@@ -7374,9 +7379,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -7396,9 +7401,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -7418,9 +7423,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -7440,9 +7445,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -7462,9 +7467,9 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -7484,9 +7489,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30">
         <v>0</v>
       </c>
@@ -7506,9 +7511,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter next Step</v>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -7526,9 +7531,9 @@
         <f t="shared" si="2"/>
         <v>Refactor du target steering behavior</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -7546,9 +7551,9 @@
         <f t="shared" si="2"/>
         <v>Le cercle du Wander Behavior</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7561,9 +7566,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7576,9 +7581,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7591,9 +7596,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7606,38 +7611,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="67" t="s">
+      <c r="E117" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7654,76 +7659,76 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="61" t="s">
+      <c r="F121" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>15</v>
       </c>
-      <c r="F122" s="64" t="s">
+      <c r="F122" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7734,6 +7739,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7750,84 +7833,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -7996,52 +8001,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:J56"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="2"/>
-    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="2"/>
+    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.26953125" style="2"/>
+    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="31" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -8051,49 +8056,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73">
+      <c r="F5" s="60">
         <v>44897</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60">
         <v>44911</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.75">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.5">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -8116,31 +8121,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.5">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Finalisation</v>
@@ -8155,14 +8160,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8176,12 +8181,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8196,7 +8201,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.75">
+    <row r="18" spans="4:17" ht="15.5">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -8205,26 +8210,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="75" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="76"/>
+      <c r="K19" s="78"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les field …</v>
@@ -8239,16 +8244,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="79"/>
+      <c r="K20" s="76"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - Implémenter les st…</v>
@@ -8262,16 +8267,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="80" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="80"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Ajouter des steeri…</v>
@@ -8285,16 +8290,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="82" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="83"/>
+      <c r="K22" s="82"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Commentaires et te…</v>
@@ -8308,12 +8313,12 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8327,37 +8332,37 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.5">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8727,22 +8732,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.75">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.5">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8761,7 +8766,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16" ht="15.5">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8781,13 +8786,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -8798,13 +8803,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -8815,54 +8820,62 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
-        <v/>
-      </c>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="35">
+        <v>2</v>
+      </c>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="7">
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
-        <v/>
-      </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34"/>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
-        <v/>
-      </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35"/>
       <c r="P58" s="12"/>
     </row>
@@ -8871,11 +8884,11 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v/>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34"/>
       <c r="P59" s="12"/>
     </row>
@@ -8884,11 +8897,11 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v/>
       </c>
-      <c r="F60" s="63"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35"/>
       <c r="P60" s="12"/>
     </row>
@@ -8897,11 +8910,11 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v/>
       </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34"/>
       <c r="P61" s="12"/>
     </row>
@@ -8910,11 +8923,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8923,11 +8936,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8936,11 +8949,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8949,11 +8962,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8962,11 +8975,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8975,11 +8988,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -8988,11 +9001,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -9001,11 +9014,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -9014,11 +9027,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -9027,11 +9040,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -9040,11 +9053,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -9053,11 +9066,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -9066,11 +9079,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -9079,11 +9092,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -9092,11 +9105,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -9105,11 +9118,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -9118,11 +9131,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -9131,11 +9144,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9144,11 +9157,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9157,11 +9170,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9170,11 +9183,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9183,11 +9196,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9196,11 +9209,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9209,11 +9222,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9222,11 +9235,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9235,11 +9248,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9248,11 +9261,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9266,21 +9279,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.75">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.5">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9295,17 +9308,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16" ht="15.5">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9322,11 +9335,11 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Implémenter interface Seeing</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>0.8</v>
       </c>
@@ -9346,9 +9359,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9364,9 +9377,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>Implémenter steering behavior EntityRepulsion</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9382,9 +9395,9 @@
         <f t="shared" si="2"/>
         <v>Mettre de l'autodoc partout</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9400,9 +9413,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9418,9 +9431,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9436,9 +9449,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9454,9 +9467,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9472,9 +9485,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9490,9 +9503,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9508,9 +9521,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9526,9 +9539,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9542,9 +9555,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9558,9 +9571,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9573,9 +9586,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9588,9 +9601,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9603,9 +9616,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9618,36 +9631,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.75">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.5">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75">
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9664,72 +9677,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9740,43 +9753,47 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F85:J85"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F87:J87"/>
@@ -9793,47 +9810,43 @@
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="G99:I99"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -10004,9 +10017,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="38"/>
+    <col min="1" max="16384" width="9.26953125" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D94078-90A3-4D9C-947E-72666C6054D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0981FF6-9811-4143-8E86-EF74A8BFD3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
   <si>
     <t>Membres de l'équipe</t>
   </si>
@@ -910,6 +910,15 @@
   </si>
   <si>
     <t>Nécessité de voir avec le client ce à quoi il s'attend pour l'interaction avec le clic sur une cible et l'affichage d'information</t>
+  </si>
+  <si>
+    <t>Établissement des classes à commenter (Simulation par Alexis, Brain par Andrzej, Piloted par Thomas, DynamicCircle pour Jo)</t>
+  </si>
+  <si>
+    <t>Finalisation du projet, paufinement.</t>
+  </si>
+  <si>
+    <t>Appréciation générale de l'équipe pour le projet dans son ensemble; très bon client.</t>
   </si>
 </sst>
 </file>
@@ -1422,48 +1431,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1481,11 +1459,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1501,27 +1491,46 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3539,33 +3548,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3575,49 +3584,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="63">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="63"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3641,30 +3650,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3679,14 +3688,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3700,14 +3709,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3731,26 +3740,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="67"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="68" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="55"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3765,16 +3774,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="64" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="65"/>
+      <c r="K20" s="57"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3788,16 +3797,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="68" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="69"/>
+      <c r="K21" s="55"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3811,16 +3820,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="64" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="65"/>
+      <c r="K22" s="57"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3834,16 +3843,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="68" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="69"/>
+      <c r="K23" s="55"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3857,12 +3866,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3872,25 +3881,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="74" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="74"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4400,22 +4409,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="63">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="63"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4454,13 +4463,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="58"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4471,13 +4480,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="55"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4488,13 +4497,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4505,13 +4514,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="55"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4522,13 +4531,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4539,13 +4548,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="55"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4556,13 +4565,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="56" t="s">
+      <c r="F59" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="58"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4573,13 +4582,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="55"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4590,13 +4599,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F61" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="58"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4607,13 +4616,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="55"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4624,11 +4633,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="58"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4637,11 +4646,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="55"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4650,11 +4659,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="56"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="58"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4663,11 +4672,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="55"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4676,11 +4685,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="58"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4689,11 +4698,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="55"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4702,11 +4711,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="56"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="58"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4715,11 +4724,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="55"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4728,11 +4737,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="58"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4741,11 +4750,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="55"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4754,11 +4763,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="56"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4767,11 +4776,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="55"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4780,11 +4789,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="56"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="58"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4793,11 +4802,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="55"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4806,11 +4815,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="58"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4819,11 +4828,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="55"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4832,11 +4841,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="58"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4845,11 +4854,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="55"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4858,11 +4867,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="58"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4871,11 +4880,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="55"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4884,11 +4893,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="58"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4897,11 +4906,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="55"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4910,11 +4919,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="58"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4923,11 +4932,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="55"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4936,11 +4945,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="58"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4949,11 +4958,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="55"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4967,21 +4976,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="63">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
     </row>
     <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="63"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -5002,11 +5011,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="71" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -5023,11 +5032,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="56" t="s">
+      <c r="G96" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="57"/>
-      <c r="I96" s="73"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5047,11 +5056,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="54"/>
-      <c r="I97" s="70"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5071,9 +5080,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="73"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5093,9 +5102,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="70"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5115,11 +5124,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="56" t="s">
+      <c r="G100" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="57"/>
-      <c r="I100" s="73"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5139,9 +5148,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="70"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5161,9 +5170,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="73"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5183,9 +5192,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="70"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5205,9 +5214,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="73"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5227,11 +5236,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="53" t="s">
+      <c r="G105" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="54"/>
-      <c r="I105" s="70"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5251,9 +5260,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="56"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="73"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5273,9 +5282,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="53"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="70"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5293,9 +5302,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="56"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="73"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5313,9 +5322,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="70"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5332,9 +5341,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="73"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5351,9 +5360,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="53"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="70"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5366,9 +5375,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="56"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="73"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5381,9 +5390,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="70"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -5391,26 +5400,26 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="66" t="s">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
     </row>
     <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
@@ -5429,78 +5438,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="57" t="s">
+      <c r="F121" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="57"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5511,17 +5520,73 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
     <mergeCell ref="F126:K126"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="G95:I95"/>
@@ -5538,73 +5603,17 @@
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G105:I105"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5795,31 +5804,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5829,49 +5838,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="60">
+      <c r="F5" s="73">
         <v>44887</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73">
         <v>44897</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="63">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="63"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5895,30 +5904,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5933,14 +5942,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5954,12 +5963,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5983,26 +5992,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="67"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="77" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="78"/>
+      <c r="K19" s="76"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -6017,16 +6026,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="75" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="76"/>
+      <c r="K20" s="78"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -6040,16 +6049,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="77" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="76"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6063,16 +6072,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="75" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="76"/>
+      <c r="K22" s="78"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6086,16 +6095,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="77" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="78"/>
+      <c r="K23" s="76"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6109,16 +6118,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="75" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="76"/>
+      <c r="K24" s="78"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6128,25 +6137,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="74" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="74"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6644,22 +6653,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="63">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="63"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6698,13 +6707,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="58"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6715,13 +6724,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="55"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6732,13 +6741,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6749,13 +6758,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="55"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6766,13 +6775,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6783,13 +6792,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="55"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="35">
         <v>1</v>
       </c>
@@ -6800,13 +6809,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="56" t="s">
+      <c r="F59" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="58"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="34">
         <v>1</v>
       </c>
@@ -6817,13 +6826,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="55"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
@@ -6834,13 +6843,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F61" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="58"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
       <c r="K61" s="34">
         <v>2</v>
       </c>
@@ -6851,13 +6860,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="55"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -6868,13 +6877,13 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v>11</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="58"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6883,11 +6892,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="55"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6896,11 +6905,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="56"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="58"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6909,11 +6918,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="55"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6922,11 +6931,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="58"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6935,11 +6944,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="55"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6948,11 +6957,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="56"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="58"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6961,11 +6970,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="55"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6974,11 +6983,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="58"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6987,11 +6996,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="55"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -7000,11 +7009,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="56"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -7013,11 +7022,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="55"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -7026,11 +7035,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="56"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="58"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -7039,11 +7048,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="55"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -7052,11 +7061,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="58"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -7065,11 +7074,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="55"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -7078,11 +7087,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="58"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -7091,11 +7100,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="55"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7104,11 +7113,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="58"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7117,11 +7126,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="55"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7130,11 +7139,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="58"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7143,11 +7152,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="55"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7156,11 +7165,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="58"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7169,11 +7178,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="55"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7182,11 +7191,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="58"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7195,11 +7204,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="55"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7213,21 +7222,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="63">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
     </row>
     <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="63"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7248,11 +7257,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="71" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7269,9 +7278,9 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="73"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -7291,9 +7300,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="53"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="70"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32">
         <v>1</v>
       </c>
@@ -7313,9 +7322,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="73"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -7335,9 +7344,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="70"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -7357,9 +7366,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="56"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="73"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30">
         <v>1</v>
       </c>
@@ -7379,9 +7388,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="70"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -7401,9 +7410,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="73"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -7423,9 +7432,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="70"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -7445,9 +7454,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="73"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -7467,9 +7476,9 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="70"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -7489,9 +7498,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="56"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="73"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30">
         <v>0</v>
       </c>
@@ -7511,9 +7520,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter next Step</v>
       </c>
-      <c r="G107" s="53"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="70"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -7531,9 +7540,9 @@
         <f t="shared" si="2"/>
         <v>Refactor du target steering behavior</v>
       </c>
-      <c r="G108" s="56"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="73"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -7551,9 +7560,9 @@
         <f t="shared" si="2"/>
         <v>Le cercle du Wander Behavior</v>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="70"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7566,9 +7575,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="73"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7581,9 +7590,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="53"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="70"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7596,9 +7605,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="56"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="73"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7611,9 +7620,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="70"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -7621,26 +7630,26 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="66" t="s">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="72" t="s">
+      <c r="E117" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
     </row>
     <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
@@ -7659,76 +7668,76 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="57" t="s">
+      <c r="F121" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>15</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="57"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7739,68 +7748,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="F122:K122"/>
@@ -7817,22 +7780,68 @@
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="E116:K116"/>
     <mergeCell ref="E117:K117"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -8001,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58:J58"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
@@ -8022,31 +8031,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -8056,49 +8065,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="60">
+      <c r="F5" s="73">
         <v>44897</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73">
         <v>44911</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="63">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="63"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -8122,30 +8131,30 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Finalisation</v>
@@ -8160,14 +8169,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8181,12 +8190,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8210,26 +8219,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="67"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="77" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="78"/>
+      <c r="K19" s="76"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les field …</v>
@@ -8244,16 +8253,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="75" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="76"/>
+      <c r="K20" s="78"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - Implémenter les st…</v>
@@ -8267,12 +8276,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="79" t="s">
         <v>212</v>
       </c>
@@ -8290,12 +8299,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="81" t="s">
         <v>171</v>
       </c>
@@ -8313,10 +8322,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="79"/>
       <c r="K23" s="80"/>
       <c r="P23" s="2" t="str">
@@ -8332,10 +8341,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="81"/>
       <c r="K24" s="82"/>
       <c r="P24" s="2" t="str">
@@ -8344,25 +8353,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="74" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="74"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8732,22 +8741,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="63">
+      <c r="B49" s="68">
         <v>2</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="63"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8786,13 +8795,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="58"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -8803,13 +8812,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="55"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -8820,13 +8829,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -8837,13 +8846,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="55"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -8854,14 +8863,16 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="34"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="34">
+        <v>2</v>
+      </c>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:16">
@@ -8869,53 +8880,67 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="35"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="35">
+        <v>2</v>
+      </c>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="7">
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
-        <v/>
-      </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="34">
+        <v>3</v>
+      </c>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
-        <v/>
-      </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="35">
+        <v>3</v>
+      </c>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="7">
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
-        <v/>
-      </c>
-      <c r="F61" s="56"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="34">
+        <v>3</v>
+      </c>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:16">
@@ -8923,11 +8948,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="55"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8936,11 +8961,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="58"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="71"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8949,11 +8974,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="55"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8962,11 +8987,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="56"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="58"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="71"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -8975,11 +9000,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="55"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -8988,11 +9013,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="58"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="71"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -9001,11 +9026,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="55"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -9014,11 +9039,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="56"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="58"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -9027,11 +9052,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="55"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -9040,11 +9065,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="58"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="71"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -9053,11 +9078,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="55"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -9066,11 +9091,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="56"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -9079,11 +9104,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="55"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -9092,11 +9117,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="56"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="58"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -9105,11 +9130,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="55"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -9118,11 +9143,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="58"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -9131,11 +9156,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="55"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -9144,11 +9169,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="58"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="71"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9157,11 +9182,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="55"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9170,11 +9195,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="58"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="71"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9183,11 +9208,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="55"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9196,11 +9221,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="58"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="71"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9209,11 +9234,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="55"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9222,11 +9247,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="58"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="71"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9235,11 +9260,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="55"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9248,11 +9273,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="58"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="71"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9261,11 +9286,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="55"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9279,21 +9304,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="63">
+      <c r="B92" s="68">
         <v>3</v>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
     </row>
     <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="63"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9314,11 +9339,11 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="71" t="s">
+      <c r="G95" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9335,11 +9360,11 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Implémenter interface Seeing</v>
       </c>
-      <c r="G96" s="56" t="s">
+      <c r="G96" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="H96" s="57"/>
-      <c r="I96" s="73"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="30">
         <v>0.8</v>
       </c>
@@ -9359,9 +9384,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="53"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="70"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9377,9 +9402,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>Implémenter steering behavior EntityRepulsion</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="73"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9395,9 +9420,9 @@
         <f t="shared" si="2"/>
         <v>Mettre de l'autodoc partout</v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="70"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9413,9 +9438,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="56"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="73"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9431,9 +9456,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="70"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9449,9 +9474,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="73"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9467,9 +9492,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="70"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9485,9 +9510,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="73"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9503,9 +9528,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="70"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9521,9 +9546,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="56"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="73"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9539,9 +9564,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="53"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="70"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9555,9 +9580,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="56"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="73"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9571,9 +9596,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="70"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9586,9 +9611,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="73"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="62"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9601,9 +9626,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="53"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="70"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9616,9 +9641,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="56"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="73"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9631,9 +9656,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="70"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
@@ -9641,24 +9666,24 @@
       <c r="K114" s="8"/>
     </row>
     <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="66" t="s">
+      <c r="E116" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
     </row>
     <row r="120" spans="4:11" ht="15.5">
       <c r="D120" s="9" t="s">
@@ -9677,72 +9702,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="57"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9753,18 +9778,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F79:J79"/>
     <mergeCell ref="F60:J60"/>
     <mergeCell ref="F53:J53"/>
@@ -9781,72 +9860,18 @@
     <mergeCell ref="F76:J76"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">

--- a/C41_Scrum_RapportDActivites.xlsx
+++ b/C41_Scrum_RapportDActivites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrz\Coding\Git\1-School\Teamwork\Boids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0658018\Desktop\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0981FF6-9811-4143-8E86-EF74A8BFD3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEFACC7-BDE8-4852-9AF6-858714922FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="484" activeTab="3" xr2:uid="{A1B31F85-D5C7-4C1E-9AA7-B91E1CDFC157}"/>
   </bookViews>
   <sheets>
     <sheet name="Description du projet" sheetId="1" r:id="rId1"/>
@@ -1431,17 +1431,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1459,23 +1490,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1491,46 +1510,27 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1552,9 +1552,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2690,17 +2690,17 @@
       <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="111.7265625" style="38" customWidth="1"/>
-    <col min="4" max="6" width="9.26953125" style="38"/>
-    <col min="7" max="7" width="9.26953125" style="38" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" style="38" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.26953125" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="111.7109375" style="38" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" style="38"/>
+    <col min="7" max="7" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="38"/>
+    <col min="15" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2768,7 +2768,7 @@
         <v>420-C12 : Outils et matériels informatiques</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5">
+    <row r="7" spans="1:9" ht="15">
       <c r="B7" s="40" t="str">
         <f>COUNTA(C6:C17) &amp; " étudiant" &amp; IF(COUNTA(C6:C17)&gt;1,"s","")</f>
         <v>4 étudiants</v>
@@ -3531,50 +3531,50 @@
       <selection activeCell="F122" sqref="F122:K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 1   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 1   |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -3584,49 +3584,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -3649,31 +3649,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Conception</v>
@@ -3688,14 +3688,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Développement</v>
@@ -3709,14 +3709,14 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v>3 - Mise en place</v>
@@ -3731,7 +3731,7 @@
         <v>3 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -3740,26 +3740,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="54" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="69"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Monter le projet s…</v>
@@ -3774,16 +3774,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="56" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="57"/>
+      <c r="K20" s="65"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Faire UML des clas…</v>
@@ -3797,16 +3797,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="54" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="69"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Faire UML des cas …</v>
@@ -3820,16 +3820,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="57"/>
+      <c r="K22" s="65"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Faire apparaitre i…</v>
@@ -3843,16 +3843,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="54" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="69"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Structurer le code…</v>
@@ -3866,12 +3866,12 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3881,25 +3881,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>5 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -4409,22 +4409,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4443,7 +4443,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4463,13 +4463,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -4480,13 +4480,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -4497,13 +4497,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -4514,13 +4514,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -4531,13 +4531,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -4548,13 +4548,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -4565,13 +4565,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -4582,13 +4582,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -4599,13 +4599,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -4616,13 +4616,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -4633,11 +4633,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -4646,11 +4646,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -4659,11 +4659,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -4672,11 +4672,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -4685,11 +4685,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -4698,11 +4698,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -4711,11 +4711,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -4724,11 +4724,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -4737,11 +4737,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -4750,11 +4750,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -4763,11 +4763,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -4776,11 +4776,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -4789,11 +4789,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -4802,11 +4802,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -4815,11 +4815,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -4828,11 +4828,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -4841,11 +4841,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -4854,11 +4854,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -4867,11 +4867,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -4880,11 +4880,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -4893,11 +4893,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -4906,11 +4906,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -4919,11 +4919,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -4932,11 +4932,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -4945,11 +4945,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -4958,11 +4958,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -4976,21 +4976,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -5005,17 +5005,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -5032,11 +5032,11 @@
         <f t="shared" ref="E96:F113" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>faire le UML des classes sur starUML</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -5056,11 +5056,11 @@
         <f t="shared" si="2"/>
         <v>faire le UML des cas d'usage sur starUML</v>
       </c>
-      <c r="G97" s="63" t="s">
+      <c r="G97" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32">
         <v>0</v>
       </c>
@@ -5080,9 +5080,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe App</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -5102,9 +5102,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Cercle</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -5124,11 +5124,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe GUI</v>
       </c>
-      <c r="G100" s="60" t="s">
+      <c r="G100" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30">
         <v>0.9</v>
       </c>
@@ -5148,9 +5148,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Simulation</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -5170,9 +5170,9 @@
         <f t="shared" si="2"/>
         <v>Faire apparaitre fenêtre tkinter</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -5192,9 +5192,9 @@
         <f t="shared" si="2"/>
         <v>Créer une image pour la simulation</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -5214,9 +5214,9 @@
         <f t="shared" si="2"/>
         <v>Créer une méthode dessiner pour l'image et les items</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -5236,11 +5236,11 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Steering behavior</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -5260,9 +5260,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Entity</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30">
         <v>1</v>
       </c>
@@ -5282,9 +5282,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Drawable</v>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -5302,9 +5302,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe Piloted</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -5322,9 +5322,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe DynamicCircle</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32">
         <v>1</v>
       </c>
@@ -5341,9 +5341,9 @@
         <f t="shared" si="2"/>
         <v>Structurer la classe StaticCircle</v>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30">
         <v>1</v>
       </c>
@@ -5360,9 +5360,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -5375,9 +5375,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -5390,38 +5390,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
       <c r="E117" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -5438,78 +5438,78 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="61" t="s">
+      <c r="F121" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>16</v>
       </c>
-      <c r="F122" s="64" t="s">
+      <c r="F122" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v>17</v>
       </c>
-      <c r="F123" s="61" t="s">
+      <c r="F123" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -5520,11 +5520,79 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VGArG41InYXOHfVvkUYUT9BNCezQ7hzwfRmgd01LK2nLXwyGXWIXZE3H8g5/4E4lauBOi2NlArZt/IFhouJS3g==" saltValue="CdGzBanfVnMz6z3Xpkslrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F78:J78"/>
@@ -5541,79 +5609,11 @@
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -5787,48 +5787,48 @@
       <selection activeCell="F5" sqref="F5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 2   |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 2   |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -5838,49 +5838,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73">
+      <c r="F5" s="60">
         <v>44887</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60">
         <v>44897</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -5903,31 +5903,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Développement</v>
@@ -5942,14 +5942,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -5963,12 +5963,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -5983,7 +5983,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -5992,26 +5992,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="75" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="76"/>
+      <c r="K19" s="78"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les nouvel…</v>
@@ -6026,16 +6026,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="76"/>
       <c r="P20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2 - Ajouter les foncti…</v>
@@ -6049,16 +6049,16 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="75" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="76"/>
+      <c r="K21" s="78"/>
       <c r="P21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3 - Paufiner les steer…</v>
@@ -6072,16 +6072,16 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="78"/>
+      <c r="K22" s="76"/>
       <c r="P22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4 - Documenter les dif…</v>
@@ -6095,16 +6095,16 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v>5</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="75" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="76"/>
+      <c r="K23" s="78"/>
       <c r="P23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5 - Ajouter élément qu…</v>
@@ -6118,16 +6118,16 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="77" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="78"/>
+      <c r="K24" s="76"/>
       <c r="P24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6 - Activer et désacti…</v>
@@ -6137,25 +6137,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>6 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -6653,22 +6653,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -6687,7 +6687,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -6707,13 +6707,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>2</v>
       </c>
@@ -6724,13 +6724,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>2</v>
       </c>
@@ -6741,13 +6741,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>2</v>
       </c>
@@ -6758,13 +6758,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -6775,13 +6775,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34">
         <v>1</v>
       </c>
@@ -6792,13 +6792,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35">
         <v>1</v>
       </c>
@@ -6809,13 +6809,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34">
         <v>1</v>
       </c>
@@ -6826,13 +6826,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35">
         <v>1</v>
       </c>
@@ -6843,13 +6843,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34">
         <v>2</v>
       </c>
@@ -6860,13 +6860,13 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35">
         <v>3</v>
       </c>
@@ -6877,13 +6877,13 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v>11</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -6892,11 +6892,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -6905,11 +6905,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -6918,11 +6918,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -6931,11 +6931,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -6944,11 +6944,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -6957,11 +6957,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -6970,11 +6970,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -6983,11 +6983,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -6996,11 +6996,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -7009,11 +7009,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -7022,11 +7022,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -7035,11 +7035,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -7048,11 +7048,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -7061,11 +7061,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -7074,11 +7074,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -7087,11 +7087,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -7100,11 +7100,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -7113,11 +7113,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -7126,11 +7126,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -7139,11 +7139,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -7152,11 +7152,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -7165,11 +7165,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -7178,11 +7178,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -7191,11 +7191,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -7204,11 +7204,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -7222,21 +7222,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -7251,17 +7251,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -7278,9 +7278,9 @@
         <f t="shared" si="2"/>
         <v>Paufiner le flee et le seek</v>
       </c>
-      <c r="G96" s="60"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>1</v>
       </c>
@@ -7300,9 +7300,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le Pursuit (steering behaviors)</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32">
         <v>1</v>
       </c>
@@ -7322,9 +7322,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le evade (steering behaviors)</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30">
         <v>1</v>
       </c>
@@ -7344,9 +7344,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Start</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32">
         <v>1</v>
       </c>
@@ -7366,9 +7366,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter le bouton Reset</v>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30">
         <v>1</v>
       </c>
@@ -7388,9 +7388,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de vitesse</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32">
         <v>1</v>
       </c>
@@ -7410,9 +7410,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter les flèche de force</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30">
         <v>1</v>
       </c>
@@ -7432,9 +7432,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter drop down menu</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32">
         <v>1</v>
       </c>
@@ -7454,9 +7454,9 @@
         <f t="shared" si="2"/>
         <v>Documenter les classes du code</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30">
         <v>1</v>
       </c>
@@ -7476,9 +7476,9 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Séparer le bouncing </v>
       </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32">
         <v>1</v>
       </c>
@@ -7498,9 +7498,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter sur un clique voir informations</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30">
         <v>0</v>
       </c>
@@ -7520,9 +7520,9 @@
         <f t="shared" si="2"/>
         <v>Ajouter next Step</v>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32">
         <v>1</v>
       </c>
@@ -7540,9 +7540,9 @@
         <f t="shared" si="2"/>
         <v>Refactor du target steering behavior</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30">
         <v>1</v>
       </c>
@@ -7560,9 +7560,9 @@
         <f t="shared" si="2"/>
         <v>Le cercle du Wander Behavior</v>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -7575,9 +7575,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -7590,9 +7590,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -7605,9 +7605,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -7620,38 +7620,38 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="67" t="s">
+      <c r="E117" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -7668,76 +7668,76 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F121" s="61" t="s">
+      <c r="F121" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v>15</v>
       </c>
-      <c r="F122" s="64" t="s">
+      <c r="F122" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -7748,6 +7748,84 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tZNTEcmkB6zVk+InZD4s3oDoXS4P7MLBpH4QzqPP/6fG7+9Yj7DFP9ZLxlIng1+elQTER5ts8rZYETc7em1P2A==" saltValue="ez6+wzq7dlum8NJb3bwlnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="E117:K117"/>
     <mergeCell ref="F123:K123"/>
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F125:K125"/>
@@ -7764,84 +7842,6 @@
     <mergeCell ref="G109:I109"/>
     <mergeCell ref="G110:I110"/>
     <mergeCell ref="G111:I111"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="17" priority="12">
@@ -8010,52 +8010,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1551E4-4563-4C0D-A5F7-A45C2F70E630}">
   <dimension ref="B2:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="F62" sqref="F62:J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="3.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.26953125" style="2"/>
-    <col min="15" max="15" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.26953125" style="2"/>
+    <col min="3" max="5" width="3.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1">
-      <c r="B2" s="72" t="str">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1">
+      <c r="B2" s="61" t="str">
         <f>"Sprint 3  |   " &amp;'Description du projet'!$C$2</f>
         <v>Sprint 3  |   Boids</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:17" ht="2.65" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1"/>
     <row r="5" spans="2:17" ht="14.65" customHeight="1">
@@ -8065,49 +8065,49 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="73">
+      <c r="F5" s="60">
         <v>44897</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:17" ht="7.9" customHeight="1"/>
     <row r="7" spans="2:17" ht="14.65" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60">
         <v>44911</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17" ht="8.65" customHeight="1">
-      <c r="B9" s="68">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="10" spans="2:17" ht="18.5">
-      <c r="B10" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="18.75">
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
@@ -8130,31 +8130,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.5">
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="D12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:17">
       <c r="E13" s="6">
         <f>IF(ISBLANK(F13), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="P13" s="2" t="str">
         <f>IF(ISBLANK(F13),"", E13&amp; " - " &amp;IF(LEN(F13)&lt;$P$11,F13,LEFT(F13,$P$11) &amp; "…"))</f>
         <v>1 - Finalisation</v>
@@ -8169,14 +8169,14 @@
         <f>IF(ISBLANK(F14), "", MAX($E$13:E13)+1)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="P14" s="2" t="str">
         <f>IF(ISBLANK(F14),"", E14&amp; " - " &amp;IF(LEN(F14)&lt;$P$11,F14,LEFT(F14,$P$11) &amp; "…"))</f>
         <v>2 - Documenter</v>
@@ -8190,12 +8190,12 @@
         <f>IF(ISBLANK(F15), "", MAX($E$13:E14)+1)</f>
         <v/>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="P15" s="2" t="str">
         <f>IF(ISBLANK(F15),"", E15&amp; " - " &amp;IF(LEN(F15)&lt;$P$11,F15,LEFT(F15,$P$11) &amp; "…"))</f>
         <v/>
@@ -8210,7 +8210,7 @@
         <v>2 orientations ont été déterminées</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="15.5">
+    <row r="18" spans="4:17" ht="15.75">
       <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
@@ -8219,26 +8219,26 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="59"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="4:17">
       <c r="E19" s="6">
         <f>IF(ISBLANK(F19), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="75" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="76"/>
+      <c r="K19" s="78"/>
       <c r="P19" s="2" t="str">
         <f t="shared" ref="P19:P24" si="0">IF(ISBLANK(F19),"", E19&amp; " - " &amp;IF(LEN(F19)&lt;$P$11,F19,LEFT(F19,$P$11) &amp; "…"))</f>
         <v>1 - Ajouter les field …</v>
@@ -8253,16 +8253,16 @@
         <f>IF(ISBLANK(F20), "", MAX($E$19:E19)+1)</f>
         <v>2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="76"/>
       <c r="P20" s="2" t="str">
         <f>IF(ISBLANK(F20),"", E20&amp; " - " &amp;IF(LEN(F20)&lt;$P$11,F20,LEFT(F20,$P$11) &amp; "…"))</f>
         <v>2 - Implémenter les st…</v>
@@ -8276,12 +8276,12 @@
         <f>IF(ISBLANK(F21), "", MAX($E$19:E20)+1)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="79" t="s">
         <v>212</v>
       </c>
@@ -8299,12 +8299,12 @@
         <f>IF(ISBLANK(F22), "", MAX($E$19:E21)+1)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="81" t="s">
         <v>171</v>
       </c>
@@ -8322,10 +8322,10 @@
         <f>IF(ISBLANK(F23), "", MAX($E$19:E22)+1)</f>
         <v/>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="79"/>
       <c r="K23" s="80"/>
       <c r="P23" s="2" t="str">
@@ -8341,10 +8341,10 @@
         <f>IF(ISBLANK(F24), "", MAX($E$19:E23)+1)</f>
         <v/>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="81"/>
       <c r="K24" s="82"/>
       <c r="P24" s="2" t="str">
@@ -8353,25 +8353,25 @@
       </c>
     </row>
     <row r="25" spans="4:17">
-      <c r="J25" s="53" t="str">
+      <c r="J25" s="74" t="str">
         <f>IF(COUNTA(F19:F24)&lt;2, "Attention, vous devez définir au moins deux objectifs.", COUNTA(F19:F24)&amp;IF(COUNTA(F19:F24)&gt;1," objectifs ont été déterminées"," objectif a été déterminée"))</f>
         <v>4 objectifs ont été déterminées</v>
       </c>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.5">
-      <c r="D27" s="58" t="s">
+      <c r="K25" s="74"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75">
+      <c r="D27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="11" t="s">
         <v>79</v>
       </c>
@@ -8741,22 +8741,22 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B49" s="68">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="2:16" ht="18.5">
-      <c r="B50" s="68"/>
+    <row r="50" spans="2:16" ht="18.75">
+      <c r="B50" s="63"/>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
@@ -8775,7 +8775,7 @@
     <row r="51" spans="2:16">
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:16" ht="15.5">
+    <row r="52" spans="2:16" ht="15.75">
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
@@ -8795,13 +8795,13 @@
         <f>IF(ISBLANK(F53), "", 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
       <c r="K53" s="34">
         <v>1</v>
       </c>
@@ -8812,13 +8812,13 @@
         <f>IF(ISBLANK(F54), "", MAX($E$53:E53)+1)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="35">
         <v>1</v>
       </c>
@@ -8829,13 +8829,13 @@
         <f>IF(ISBLANK(F55), "", MAX($E$53:E54)+1)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="34">
         <v>1</v>
       </c>
@@ -8846,13 +8846,13 @@
         <f>IF(ISBLANK(F56), "", MAX($E$53:E55)+1)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
       <c r="K56" s="35">
         <v>2</v>
       </c>
@@ -8863,13 +8863,13 @@
         <f>IF(ISBLANK(F57), "", MAX($E$53:E56)+1)</f>
         <v>5</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="34">
         <v>2</v>
       </c>
@@ -8880,13 +8880,13 @@
         <f>IF(ISBLANK(F58), "", MAX($E$53:E57)+1)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="35">
         <v>2</v>
       </c>
@@ -8897,13 +8897,13 @@
         <f>IF(ISBLANK(F59), "", MAX($E$53:E58)+1)</f>
         <v>7</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="34">
         <v>3</v>
       </c>
@@ -8914,13 +8914,13 @@
         <f>IF(ISBLANK(F60), "", MAX($E$53:E59)+1)</f>
         <v>8</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
       <c r="K60" s="35">
         <v>3</v>
       </c>
@@ -8931,13 +8931,13 @@
         <f>IF(ISBLANK(F61), "", MAX($E$53:E60)+1)</f>
         <v>9</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="34">
         <v>3</v>
       </c>
@@ -8948,11 +8948,11 @@
         <f>IF(ISBLANK(F62), "", MAX($E$53:E61)+1)</f>
         <v/>
       </c>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="70"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="35"/>
       <c r="P62" s="12"/>
     </row>
@@ -8961,11 +8961,11 @@
         <f>IF(ISBLANK(F63), "", MAX($E$53:E62)+1)</f>
         <v/>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="71"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="34"/>
       <c r="P63" s="12"/>
     </row>
@@ -8974,11 +8974,11 @@
         <f>IF(ISBLANK(F64), "", MAX($E$53:E63)+1)</f>
         <v/>
       </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="35"/>
       <c r="P64" s="12"/>
     </row>
@@ -8987,11 +8987,11 @@
         <f>IF(ISBLANK(F65), "", MAX($E$53:E64)+1)</f>
         <v/>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="71"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
       <c r="K65" s="34"/>
       <c r="P65" s="12"/>
     </row>
@@ -9000,11 +9000,11 @@
         <f>IF(ISBLANK(F66), "", MAX($E$53:E65)+1)</f>
         <v/>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="35"/>
       <c r="P66" s="12"/>
     </row>
@@ -9013,11 +9013,11 @@
         <f>IF(ISBLANK(F67), "", MAX($E$53:E66)+1)</f>
         <v/>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="71"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="34"/>
       <c r="P67" s="12"/>
     </row>
@@ -9026,11 +9026,11 @@
         <f>IF(ISBLANK(F68), "", MAX($E$53:E67)+1)</f>
         <v/>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="70"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="35"/>
       <c r="P68" s="12"/>
     </row>
@@ -9039,11 +9039,11 @@
         <f>IF(ISBLANK(F69), "", MAX($E$53:E68)+1)</f>
         <v/>
       </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="71"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="34"/>
       <c r="P69" s="12"/>
     </row>
@@ -9052,11 +9052,11 @@
         <f>IF(ISBLANK(F70), "", MAX($E$53:E69)+1)</f>
         <v/>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="70"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="35"/>
       <c r="P70" s="12"/>
     </row>
@@ -9065,11 +9065,11 @@
         <f>IF(ISBLANK(F71), "", MAX($E$53:E70)+1)</f>
         <v/>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="71"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
       <c r="K71" s="34"/>
       <c r="P71" s="12"/>
     </row>
@@ -9078,11 +9078,11 @@
         <f>IF(ISBLANK(F72), "", MAX($E$53:E71)+1)</f>
         <v/>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="70"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="35"/>
       <c r="P72" s="12"/>
     </row>
@@ -9091,11 +9091,11 @@
         <f>IF(ISBLANK(F73), "", MAX($E$53:E72)+1)</f>
         <v/>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
       <c r="K73" s="34"/>
       <c r="P73" s="12"/>
     </row>
@@ -9104,11 +9104,11 @@
         <f>IF(ISBLANK(F74), "", MAX($E$53:E73)+1)</f>
         <v/>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="35"/>
       <c r="P74" s="12"/>
     </row>
@@ -9117,11 +9117,11 @@
         <f>IF(ISBLANK(F75), "", MAX($E$53:E74)+1)</f>
         <v/>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
       <c r="K75" s="34"/>
       <c r="P75" s="12"/>
     </row>
@@ -9130,11 +9130,11 @@
         <f>IF(ISBLANK(F76), "", MAX($E$53:E75)+1)</f>
         <v/>
       </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="70"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="35"/>
       <c r="P76" s="12"/>
     </row>
@@ -9143,11 +9143,11 @@
         <f>IF(ISBLANK(F77), "", MAX($E$53:E76)+1)</f>
         <v/>
       </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="71"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
       <c r="K77" s="34"/>
       <c r="P77" s="12"/>
     </row>
@@ -9156,11 +9156,11 @@
         <f>IF(ISBLANK(F78), "", MAX($E$53:E77)+1)</f>
         <v/>
       </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
       <c r="K78" s="35"/>
       <c r="P78" s="12"/>
     </row>
@@ -9169,11 +9169,11 @@
         <f>IF(ISBLANK(F79), "", MAX($E$53:E78)+1)</f>
         <v/>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="34"/>
       <c r="P79" s="12"/>
     </row>
@@ -9182,11 +9182,11 @@
         <f>IF(ISBLANK(F80), "", MAX($E$53:E79)+1)</f>
         <v/>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="70"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
       <c r="K80" s="35"/>
       <c r="P80" s="12"/>
     </row>
@@ -9195,11 +9195,11 @@
         <f>IF(ISBLANK(F81), "", MAX($E$53:E80)+1)</f>
         <v/>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="71"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="34"/>
       <c r="P81" s="12"/>
     </row>
@@ -9208,11 +9208,11 @@
         <f>IF(ISBLANK(F82), "", MAX($E$53:E81)+1)</f>
         <v/>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="35"/>
       <c r="P82" s="12"/>
     </row>
@@ -9221,11 +9221,11 @@
         <f>IF(ISBLANK(F83), "", MAX($E$53:E82)+1)</f>
         <v/>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="71"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
       <c r="K83" s="34"/>
       <c r="P83" s="12"/>
     </row>
@@ -9234,11 +9234,11 @@
         <f>IF(ISBLANK(F84), "", MAX($E$53:E83)+1)</f>
         <v/>
       </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="70"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
       <c r="K84" s="35"/>
       <c r="P84" s="12"/>
     </row>
@@ -9247,11 +9247,11 @@
         <f>IF(ISBLANK(F85), "", MAX($E$53:E84)+1)</f>
         <v/>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="71"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
       <c r="K85" s="34"/>
       <c r="P85" s="12"/>
     </row>
@@ -9260,11 +9260,11 @@
         <f>IF(ISBLANK(F86), "", MAX($E$53:E85)+1)</f>
         <v/>
       </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="70"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
       <c r="K86" s="35"/>
       <c r="P86" s="12"/>
     </row>
@@ -9273,11 +9273,11 @@
         <f>IF(ISBLANK(F87), "", MAX($E$53:E86)+1)</f>
         <v/>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
       <c r="K87" s="34"/>
       <c r="P87" s="12"/>
     </row>
@@ -9286,11 +9286,11 @@
         <f>IF(ISBLANK(F88), "", MAX($E$53:E87)+1)</f>
         <v/>
       </c>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="70"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="35"/>
       <c r="P88" s="12"/>
     </row>
@@ -9304,21 +9304,21 @@
       <c r="P91" s="12"/>
     </row>
     <row r="92" spans="2:16" ht="8.65" customHeight="1">
-      <c r="B92" s="68">
+      <c r="B92" s="63">
         <v>3</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:16" ht="18.5">
-      <c r="B93" s="68"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:16" ht="18.75">
+      <c r="B93" s="63"/>
       <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
@@ -9333,17 +9333,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.5">
+    <row r="95" spans="2:16" ht="15.75">
       <c r="D95" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
       <c r="J95" s="15" t="s">
         <v>92</v>
       </c>
@@ -9360,11 +9360,11 @@
         <f t="shared" ref="E96:F111" si="2">IF(ISBLANK(F28),"",F28)</f>
         <v>Implémenter interface Seeing</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="30">
         <v>0.8</v>
       </c>
@@ -9384,9 +9384,9 @@
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="70"/>
       <c r="J97" s="32"/>
       <c r="K97" s="33"/>
       <c r="P97" s="13">
@@ -9402,9 +9402,9 @@
         <f>IF(ISBLANK(F29),"",F29)</f>
         <v>Implémenter steering behavior EntityRepulsion</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="62"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="30"/>
       <c r="K98" s="31"/>
       <c r="P98" s="13">
@@ -9420,9 +9420,9 @@
         <f t="shared" si="2"/>
         <v>Mettre de l'autodoc partout</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="70"/>
       <c r="J99" s="32"/>
       <c r="K99" s="33"/>
       <c r="P99" s="13">
@@ -9438,9 +9438,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="62"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="30"/>
       <c r="K100" s="31"/>
       <c r="P100" s="13">
@@ -9456,9 +9456,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="65"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="70"/>
       <c r="J101" s="32"/>
       <c r="K101" s="33"/>
       <c r="P101" s="13">
@@ -9474,9 +9474,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="62"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="30"/>
       <c r="K102" s="31"/>
       <c r="P102" s="13">
@@ -9492,9 +9492,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="70"/>
       <c r="J103" s="32"/>
       <c r="K103" s="33"/>
       <c r="P103" s="13">
@@ -9510,9 +9510,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="30"/>
       <c r="K104" s="31"/>
       <c r="P104" s="13">
@@ -9528,9 +9528,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="70"/>
       <c r="J105" s="32"/>
       <c r="K105" s="33"/>
       <c r="P105" s="13">
@@ -9546,9 +9546,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="62"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="30"/>
       <c r="K106" s="31"/>
       <c r="P106" s="13">
@@ -9564,9 +9564,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="70"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33"/>
       <c r="P107" s="13"/>
@@ -9580,9 +9580,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="62"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="30"/>
       <c r="K108" s="31"/>
       <c r="P108" s="13"/>
@@ -9596,9 +9596,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="65"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="70"/>
       <c r="J109" s="32"/>
       <c r="K109" s="33"/>
     </row>
@@ -9611,9 +9611,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="62"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="30"/>
       <c r="K110" s="31"/>
     </row>
@@ -9626,9 +9626,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="70"/>
       <c r="J111" s="32"/>
       <c r="K111" s="33"/>
     </row>
@@ -9641,9 +9641,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="62"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="30"/>
       <c r="K112" s="31"/>
     </row>
@@ -9656,36 +9656,36 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="70"/>
       <c r="J113" s="32"/>
       <c r="K113" s="33"/>
     </row>
     <row r="114" spans="4:11">
       <c r="K114" s="8"/>
     </row>
-    <row r="116" spans="4:11" ht="15.5">
-      <c r="E116" s="58" t="s">
+    <row r="116" spans="4:11" ht="15.75">
+      <c r="E116" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
     </row>
     <row r="117" spans="4:11" ht="101.65" customHeight="1">
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.5">
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75">
       <c r="D120" s="9" t="s">
         <v>95</v>
       </c>
@@ -9702,72 +9702,72 @@
         <f>IF(ISBLANK(F121), "", 1)</f>
         <v/>
       </c>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="4:11">
       <c r="E122" s="7" t="str">
         <f>IF(ISBLANK(F122), "", MAX($E$28:E121)+1)</f>
         <v/>
       </c>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123" spans="4:11">
       <c r="E123" s="6" t="str">
         <f>IF(ISBLANK(F123), "", MAX($E$28:E122)+1)</f>
         <v/>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="4:11">
       <c r="E124" s="7" t="str">
         <f>IF(ISBLANK(F124), "", MAX($E$28:E123)+1)</f>
         <v/>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="4:11">
       <c r="E125" s="6" t="str">
         <f>IF(ISBLANK(F125), "", MAX($E$28:E124)+1)</f>
         <v/>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="4:11">
       <c r="E126" s="7" t="str">
         <f>IF(ISBLANK(F126), "", MAX($E$28:E125)+1)</f>
         <v/>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="4:11">
       <c r="K127" s="8" t="str">
@@ -9778,43 +9778,47 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eItl4O/uLGUZ5V7FzXI1dDByfpwyPjFacOCzKiOpI2IpN12/xHbpao9Qb0n4BPutBeSA+KjVypuoZTLK8e7s5A==" saltValue="Xy/5R8JdvZ2a1R+l2hFTJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="94">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="F85:J85"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F87:J87"/>
@@ -9831,47 +9835,43 @@
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="G99:I99"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G100:I100"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -10040,11 +10040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88741D-3A64-4935-98BF-84A80906FBB5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.26953125" style="38"/>
+    <col min="1" max="16384" width="9.28515625" style="38"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="kdap5/q7x4iDvSaZGxscJoKXINirPaeAAa3QEP1m1KV+XiN9t5TfN/dJ/6nuVf9OKYOQDwyFI9eGAtTvuOBctQ==" saltValue="bbvw6dZ1oKIuhw+KRTQuGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
